--- a/data-migration/xlsx_1900-/1918_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1918_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16D326D-91DB-40AF-B725-760AB7EE66CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B078E-8AE8-400C-A2B0-2496B8B65BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28170" yWindow="165" windowWidth="25485" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4156,9 +4156,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>mueller_h2</t>
   </si>
   <si>
@@ -4201,9 +4198,6 @@
     <t>hoessly_h</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4277,6 +4271,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4626,21 +4626,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J202" sqref="J202"/>
+    <sheetView tabSelected="1" topLeftCell="G72" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="35.36328125" customWidth="1"/>
-    <col min="6" max="6" width="59.453125" customWidth="1"/>
-    <col min="7" max="7" width="32.453125" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="59.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1918</v>
       </c>
@@ -4663,10 +4663,10 @@
         <v>1239</v>
       </c>
       <c r="I1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1918</v>
       </c>
@@ -4689,10 +4689,10 @@
         <v>1377</v>
       </c>
       <c r="I2" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1918</v>
       </c>
@@ -4715,10 +4715,10 @@
         <v>1377</v>
       </c>
       <c r="I3" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1918</v>
       </c>
@@ -4741,10 +4741,10 @@
         <v>1239</v>
       </c>
       <c r="I4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1918</v>
       </c>
@@ -4767,10 +4767,10 @@
         <v>1359</v>
       </c>
       <c r="I5" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1918</v>
       </c>
@@ -4793,10 +4793,10 @@
         <v>1242</v>
       </c>
       <c r="I6" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1918</v>
       </c>
@@ -4819,10 +4819,10 @@
         <v>1377</v>
       </c>
       <c r="I7" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1918</v>
       </c>
@@ -4845,13 +4845,13 @@
         <v>1243</v>
       </c>
       <c r="I8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J8" t="s">
         <v>1405</v>
       </c>
-      <c r="J8" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1918</v>
       </c>
@@ -4874,10 +4874,10 @@
         <v>1240</v>
       </c>
       <c r="I9" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1918</v>
       </c>
@@ -4900,10 +4900,10 @@
         <v>1240</v>
       </c>
       <c r="I10" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1918</v>
       </c>
@@ -4923,13 +4923,13 @@
         <v>942</v>
       </c>
       <c r="H11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I11" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1918</v>
       </c>
@@ -4949,13 +4949,13 @@
         <v>943</v>
       </c>
       <c r="H12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1918</v>
       </c>
@@ -4978,13 +4978,13 @@
         <v>1243</v>
       </c>
       <c r="I13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J13" t="s">
         <v>1405</v>
       </c>
-      <c r="J13" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1918</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>945</v>
       </c>
       <c r="H14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I14" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1918</v>
       </c>
@@ -5033,10 +5033,10 @@
         <v>1244</v>
       </c>
       <c r="I15" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1918</v>
       </c>
@@ -5059,10 +5059,10 @@
         <v>1242</v>
       </c>
       <c r="I16" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1918</v>
       </c>
@@ -5085,10 +5085,10 @@
         <v>1359</v>
       </c>
       <c r="I17" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1918</v>
       </c>
@@ -5111,10 +5111,10 @@
         <v>1377</v>
       </c>
       <c r="I18" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1918</v>
       </c>
@@ -5137,10 +5137,10 @@
         <v>1359</v>
       </c>
       <c r="I19" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1918</v>
       </c>
@@ -5163,13 +5163,13 @@
         <v>1243</v>
       </c>
       <c r="I20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J20" t="s">
         <v>1405</v>
       </c>
-      <c r="J20" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1918</v>
       </c>
@@ -5192,10 +5192,10 @@
         <v>1240</v>
       </c>
       <c r="I21" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1918</v>
       </c>
@@ -5218,10 +5218,10 @@
         <v>1244</v>
       </c>
       <c r="I22" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1918</v>
       </c>
@@ -5244,10 +5244,10 @@
         <v>1244</v>
       </c>
       <c r="I23" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1918</v>
       </c>
@@ -5270,10 +5270,10 @@
         <v>1359</v>
       </c>
       <c r="I24" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1918</v>
       </c>
@@ -5296,10 +5296,10 @@
         <v>1245</v>
       </c>
       <c r="I25" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1918</v>
       </c>
@@ -5322,10 +5322,10 @@
         <v>1246</v>
       </c>
       <c r="I26" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1918</v>
       </c>
@@ -5348,13 +5348,13 @@
         <v>1247</v>
       </c>
       <c r="I27" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J27" t="s">
         <v>1405</v>
       </c>
-      <c r="J27" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1918</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>1248</v>
       </c>
       <c r="I28" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1918</v>
       </c>
@@ -5403,10 +5403,10 @@
         <v>1249</v>
       </c>
       <c r="I29" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1918</v>
       </c>
@@ -5429,10 +5429,10 @@
         <v>1249</v>
       </c>
       <c r="I30" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1918</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>1249</v>
       </c>
       <c r="I31" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1918</v>
       </c>
@@ -5481,10 +5481,10 @@
         <v>1250</v>
       </c>
       <c r="I32" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1918</v>
       </c>
@@ -5504,13 +5504,13 @@
         <v>963</v>
       </c>
       <c r="H33" t="s">
-        <v>1378</v>
+        <v>1417</v>
       </c>
       <c r="I33" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1918</v>
       </c>
@@ -5533,10 +5533,10 @@
         <v>1250</v>
       </c>
       <c r="I34" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1918</v>
       </c>
@@ -5559,10 +5559,10 @@
         <v>1250</v>
       </c>
       <c r="I35" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1918</v>
       </c>
@@ -5585,10 +5585,10 @@
         <v>1252</v>
       </c>
       <c r="I36" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1918</v>
       </c>
@@ -5611,13 +5611,13 @@
         <v>1247</v>
       </c>
       <c r="I37" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J37" t="s">
         <v>1405</v>
       </c>
-      <c r="J37" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1918</v>
       </c>
@@ -5640,10 +5640,10 @@
         <v>1253</v>
       </c>
       <c r="I38" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1918</v>
       </c>
@@ -5666,10 +5666,10 @@
         <v>1245</v>
       </c>
       <c r="I39" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1918</v>
       </c>
@@ -5689,13 +5689,13 @@
         <v>968</v>
       </c>
       <c r="H40" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I40" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1918</v>
       </c>
@@ -5718,10 +5718,10 @@
         <v>1245</v>
       </c>
       <c r="I41" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1918</v>
       </c>
@@ -5744,10 +5744,10 @@
         <v>1253</v>
       </c>
       <c r="I42" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1918</v>
       </c>
@@ -5767,13 +5767,13 @@
         <v>971</v>
       </c>
       <c r="H43" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I43" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1918</v>
       </c>
@@ -5796,10 +5796,10 @@
         <v>1253</v>
       </c>
       <c r="I44" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1918</v>
       </c>
@@ -5819,13 +5819,13 @@
         <v>972</v>
       </c>
       <c r="H45" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I45" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1918</v>
       </c>
@@ -5848,10 +5848,10 @@
         <v>1254</v>
       </c>
       <c r="I46" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1918</v>
       </c>
@@ -5874,10 +5874,10 @@
         <v>1254</v>
       </c>
       <c r="I47" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1918</v>
       </c>
@@ -5900,10 +5900,10 @@
         <v>1255</v>
       </c>
       <c r="I48" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1918</v>
       </c>
@@ -5926,10 +5926,10 @@
         <v>1256</v>
       </c>
       <c r="I49" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1918</v>
       </c>
@@ -5952,10 +5952,10 @@
         <v>1257</v>
       </c>
       <c r="I50" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1918</v>
       </c>
@@ -5978,10 +5978,10 @@
         <v>1258</v>
       </c>
       <c r="I51" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1918</v>
       </c>
@@ -6004,10 +6004,10 @@
         <v>1256</v>
       </c>
       <c r="I52" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1918</v>
       </c>
@@ -6030,10 +6030,10 @@
         <v>1257</v>
       </c>
       <c r="I53" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1918</v>
       </c>
@@ -6056,10 +6056,10 @@
         <v>1255</v>
       </c>
       <c r="I54" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1918</v>
       </c>
@@ -6079,13 +6079,13 @@
         <v>970</v>
       </c>
       <c r="H55" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I55" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1918</v>
       </c>
@@ -6108,10 +6108,10 @@
         <v>1259</v>
       </c>
       <c r="I56" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1918</v>
       </c>
@@ -6131,13 +6131,13 @@
         <v>982</v>
       </c>
       <c r="H57" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I57" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1918</v>
       </c>
@@ -6157,13 +6157,13 @@
         <v>983</v>
       </c>
       <c r="H58" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I58" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1918</v>
       </c>
@@ -6186,10 +6186,10 @@
         <v>1260</v>
       </c>
       <c r="I59" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1918</v>
       </c>
@@ -6212,10 +6212,10 @@
         <v>1360</v>
       </c>
       <c r="I60" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1918</v>
       </c>
@@ -6238,10 +6238,10 @@
         <v>1360</v>
       </c>
       <c r="I61" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1918</v>
       </c>
@@ -6264,10 +6264,10 @@
         <v>1260</v>
       </c>
       <c r="I62" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1918</v>
       </c>
@@ -6290,10 +6290,10 @@
         <v>1360</v>
       </c>
       <c r="I63" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1918</v>
       </c>
@@ -6316,10 +6316,10 @@
         <v>1262</v>
       </c>
       <c r="I64" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1918</v>
       </c>
@@ -6342,10 +6342,10 @@
         <v>1263</v>
       </c>
       <c r="I65" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1918</v>
       </c>
@@ -6368,10 +6368,10 @@
         <v>1264</v>
       </c>
       <c r="I66" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1918</v>
       </c>
@@ -6394,10 +6394,10 @@
         <v>1359</v>
       </c>
       <c r="I67" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1918</v>
       </c>
@@ -6420,10 +6420,10 @@
         <v>1245</v>
       </c>
       <c r="I68" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1918</v>
       </c>
@@ -6443,13 +6443,13 @@
         <v>993</v>
       </c>
       <c r="H69" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I69" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1918</v>
       </c>
@@ -6472,10 +6472,10 @@
         <v>1248</v>
       </c>
       <c r="I70" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1918</v>
       </c>
@@ -6498,13 +6498,13 @@
         <v>1247</v>
       </c>
       <c r="I71" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J71" t="s">
         <v>1405</v>
       </c>
-      <c r="J71" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1918</v>
       </c>
@@ -6527,10 +6527,10 @@
         <v>1250</v>
       </c>
       <c r="I72" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1918</v>
       </c>
@@ -6553,10 +6553,10 @@
         <v>1253</v>
       </c>
       <c r="I73" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1918</v>
       </c>
@@ -6579,10 +6579,10 @@
         <v>1254</v>
       </c>
       <c r="I74" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1918</v>
       </c>
@@ -6605,10 +6605,10 @@
         <v>1246</v>
       </c>
       <c r="I75" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1918</v>
       </c>
@@ -6631,10 +6631,10 @@
         <v>1256</v>
       </c>
       <c r="I76" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1918</v>
       </c>
@@ -6657,10 +6657,10 @@
         <v>1256</v>
       </c>
       <c r="I77" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1918</v>
       </c>
@@ -6683,10 +6683,10 @@
         <v>1257</v>
       </c>
       <c r="I78" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1918</v>
       </c>
@@ -6709,10 +6709,10 @@
         <v>1259</v>
       </c>
       <c r="I79" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1918</v>
       </c>
@@ -6735,10 +6735,10 @@
         <v>1258</v>
       </c>
       <c r="I80" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1918</v>
       </c>
@@ -6761,10 +6761,10 @@
         <v>1265</v>
       </c>
       <c r="I81" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1918</v>
       </c>
@@ -6787,16 +6787,16 @@
         <v>1360</v>
       </c>
       <c r="I82" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K82" t="s">
         <v>1262</v>
       </c>
       <c r="L82" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1918</v>
       </c>
@@ -6819,10 +6819,10 @@
         <v>1260</v>
       </c>
       <c r="I83" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1918</v>
       </c>
@@ -6845,16 +6845,16 @@
         <v>1266</v>
       </c>
       <c r="I84" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K84" t="s">
         <v>1267</v>
       </c>
       <c r="L84" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1918</v>
       </c>
@@ -6880,10 +6880,10 @@
         <v>1266</v>
       </c>
       <c r="I85" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1918</v>
       </c>
@@ -6906,10 +6906,10 @@
         <v>1266</v>
       </c>
       <c r="I86" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1918</v>
       </c>
@@ -6929,13 +6929,13 @@
         <v>1005</v>
       </c>
       <c r="H87" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I87" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1918</v>
       </c>
@@ -6961,10 +6961,10 @@
         <v>1267</v>
       </c>
       <c r="I88" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1918</v>
       </c>
@@ -6987,10 +6987,10 @@
         <v>1267</v>
       </c>
       <c r="I89" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1918</v>
       </c>
@@ -7010,13 +7010,13 @@
         <v>1008</v>
       </c>
       <c r="H90" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I90" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1918</v>
       </c>
@@ -7036,13 +7036,13 @@
         <v>1009</v>
       </c>
       <c r="H91" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I91" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1918</v>
       </c>
@@ -7062,13 +7062,13 @@
         <v>1010</v>
       </c>
       <c r="H92" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I92" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1918</v>
       </c>
@@ -7091,10 +7091,10 @@
         <v>1268</v>
       </c>
       <c r="I93" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1918</v>
       </c>
@@ -7117,10 +7117,10 @@
         <v>1268</v>
       </c>
       <c r="I94" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1918</v>
       </c>
@@ -7143,10 +7143,10 @@
         <v>1376</v>
       </c>
       <c r="I95" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1918</v>
       </c>
@@ -7169,10 +7169,10 @@
         <v>1376</v>
       </c>
       <c r="I96" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1918</v>
       </c>
@@ -7195,10 +7195,10 @@
         <v>1376</v>
       </c>
       <c r="I97" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1918</v>
       </c>
@@ -7221,10 +7221,10 @@
         <v>1376</v>
       </c>
       <c r="I98" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1918</v>
       </c>
@@ -7247,10 +7247,10 @@
         <v>1270</v>
       </c>
       <c r="I99" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1918</v>
       </c>
@@ -7273,16 +7273,16 @@
         <v>1270</v>
       </c>
       <c r="I100" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K100" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="L100" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1918</v>
       </c>
@@ -7305,16 +7305,16 @@
         <v>1270</v>
       </c>
       <c r="I101" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K101" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="L101" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1918</v>
       </c>
@@ -7337,10 +7337,10 @@
         <v>1270</v>
       </c>
       <c r="I102" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1918</v>
       </c>
@@ -7363,10 +7363,10 @@
         <v>1270</v>
       </c>
       <c r="I103" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1918</v>
       </c>
@@ -7389,10 +7389,10 @@
         <v>1270</v>
       </c>
       <c r="I104" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1918</v>
       </c>
@@ -7412,13 +7412,13 @@
         <v>1020</v>
       </c>
       <c r="H105" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I105" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1918</v>
       </c>
@@ -7438,13 +7438,13 @@
         <v>1021</v>
       </c>
       <c r="H106" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I106" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1918</v>
       </c>
@@ -7467,10 +7467,10 @@
         <v>1361</v>
       </c>
       <c r="I107" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1918</v>
       </c>
@@ -7493,10 +7493,10 @@
         <v>1361</v>
       </c>
       <c r="I108" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1918</v>
       </c>
@@ -7519,10 +7519,10 @@
         <v>1271</v>
       </c>
       <c r="I109" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1918</v>
       </c>
@@ -7545,10 +7545,10 @@
         <v>1271</v>
       </c>
       <c r="I110" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1918</v>
       </c>
@@ -7571,10 +7571,10 @@
         <v>1271</v>
       </c>
       <c r="I111" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1918</v>
       </c>
@@ -7597,10 +7597,10 @@
         <v>1362</v>
       </c>
       <c r="I112" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1918</v>
       </c>
@@ -7623,10 +7623,10 @@
         <v>1362</v>
       </c>
       <c r="I113" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1918</v>
       </c>
@@ -7649,10 +7649,10 @@
         <v>1363</v>
       </c>
       <c r="I114" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1918</v>
       </c>
@@ -7675,10 +7675,10 @@
         <v>1363</v>
       </c>
       <c r="I115" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1918</v>
       </c>
@@ -7698,13 +7698,13 @@
         <v>1030</v>
       </c>
       <c r="H116" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I116" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1918</v>
       </c>
@@ -7727,10 +7727,10 @@
         <v>1272</v>
       </c>
       <c r="I117" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1918</v>
       </c>
@@ -7753,10 +7753,10 @@
         <v>1272</v>
       </c>
       <c r="I118" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1918</v>
       </c>
@@ -7779,10 +7779,10 @@
         <v>1272</v>
       </c>
       <c r="I119" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1918</v>
       </c>
@@ -7805,10 +7805,10 @@
         <v>1273</v>
       </c>
       <c r="I120" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1918</v>
       </c>
@@ -7831,10 +7831,10 @@
         <v>1273</v>
       </c>
       <c r="I121" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1918</v>
       </c>
@@ -7857,10 +7857,10 @@
         <v>1274</v>
       </c>
       <c r="I122" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1918</v>
       </c>
@@ -7883,16 +7883,16 @@
         <v>1275</v>
       </c>
       <c r="I123" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="K123" t="s">
         <v>1274</v>
       </c>
       <c r="L123" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1918</v>
       </c>
@@ -7915,16 +7915,16 @@
         <v>1274</v>
       </c>
       <c r="I124" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="K124" t="s">
         <v>1275</v>
       </c>
       <c r="L124" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1918</v>
       </c>
@@ -7947,10 +7947,10 @@
         <v>1275</v>
       </c>
       <c r="I125" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1918</v>
       </c>
@@ -7970,13 +7970,13 @@
         <v>1038</v>
       </c>
       <c r="H126" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I126" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1918</v>
       </c>
@@ -7996,13 +7996,13 @@
         <v>1034</v>
       </c>
       <c r="H127" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I127" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1918</v>
       </c>
@@ -8022,13 +8022,13 @@
         <v>1034</v>
       </c>
       <c r="H128" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I128" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1918</v>
       </c>
@@ -8051,10 +8051,10 @@
         <v>1276</v>
       </c>
       <c r="I129" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1918</v>
       </c>
@@ -8071,16 +8071,16 @@
         <v>601</v>
       </c>
       <c r="G130" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H130" t="s">
         <v>1276</v>
       </c>
       <c r="I130" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1918</v>
       </c>
@@ -8100,10 +8100,10 @@
         <v>1039</v>
       </c>
       <c r="H131" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1918</v>
       </c>
@@ -8123,10 +8123,10 @@
         <v>1040</v>
       </c>
       <c r="H132" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1918</v>
       </c>
@@ -8149,10 +8149,10 @@
         <v>1277</v>
       </c>
       <c r="I133" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1918</v>
       </c>
@@ -8175,10 +8175,10 @@
         <v>1277</v>
       </c>
       <c r="I134" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1918</v>
       </c>
@@ -8198,10 +8198,10 @@
         <v>1278</v>
       </c>
       <c r="I135" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1918</v>
       </c>
@@ -8224,10 +8224,10 @@
         <v>1279</v>
       </c>
       <c r="I136" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1918</v>
       </c>
@@ -8247,13 +8247,13 @@
         <v>1044</v>
       </c>
       <c r="H137" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I137" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1918</v>
       </c>
@@ -8276,10 +8276,10 @@
         <v>1281</v>
       </c>
       <c r="I138" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1918</v>
       </c>
@@ -8299,13 +8299,13 @@
         <v>1046</v>
       </c>
       <c r="H139" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I139" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1918</v>
       </c>
@@ -8325,13 +8325,13 @@
         <v>1047</v>
       </c>
       <c r="H140" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I140" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1918</v>
       </c>
@@ -8354,10 +8354,10 @@
         <v>1282</v>
       </c>
       <c r="I141" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1918</v>
       </c>
@@ -8380,10 +8380,10 @@
         <v>1283</v>
       </c>
       <c r="I142" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1918</v>
       </c>
@@ -8406,10 +8406,10 @@
         <v>1283</v>
       </c>
       <c r="I143" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1918</v>
       </c>
@@ -8432,10 +8432,10 @@
         <v>1284</v>
       </c>
       <c r="I144" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1918</v>
       </c>
@@ -8458,10 +8458,10 @@
         <v>1285</v>
       </c>
       <c r="I145" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1918</v>
       </c>
@@ -8484,10 +8484,10 @@
         <v>1285</v>
       </c>
       <c r="I146" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1918</v>
       </c>
@@ -8510,10 +8510,10 @@
         <v>1364</v>
       </c>
       <c r="I147" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1918</v>
       </c>
@@ -8533,13 +8533,13 @@
         <v>1055</v>
       </c>
       <c r="H148" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I148" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1918</v>
       </c>
@@ -8559,13 +8559,13 @@
         <v>1056</v>
       </c>
       <c r="H149" t="s">
-        <v>1393</v>
+        <v>1418</v>
       </c>
       <c r="I149" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1918</v>
       </c>
@@ -8585,13 +8585,13 @@
         <v>1056</v>
       </c>
       <c r="H150" t="s">
-        <v>1393</v>
+        <v>1418</v>
       </c>
       <c r="I150" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1918</v>
       </c>
@@ -8614,10 +8614,10 @@
         <v>1286</v>
       </c>
       <c r="I151" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1918</v>
       </c>
@@ -8640,10 +8640,10 @@
         <v>1286</v>
       </c>
       <c r="I152" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1918</v>
       </c>
@@ -8663,13 +8663,13 @@
         <v>947</v>
       </c>
       <c r="H153" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I153" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1918</v>
       </c>
@@ -8689,13 +8689,13 @@
         <v>1034</v>
       </c>
       <c r="H154" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I154" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1918</v>
       </c>
@@ -8718,10 +8718,10 @@
         <v>1287</v>
       </c>
       <c r="I155" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1918</v>
       </c>
@@ -8744,10 +8744,10 @@
         <v>1287</v>
       </c>
       <c r="I156" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1918</v>
       </c>
@@ -8770,10 +8770,10 @@
         <v>1288</v>
       </c>
       <c r="I157" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1918</v>
       </c>
@@ -8796,10 +8796,10 @@
         <v>1288</v>
       </c>
       <c r="I158" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1918</v>
       </c>
@@ -8822,10 +8822,10 @@
         <v>1288</v>
       </c>
       <c r="I159" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1918</v>
       </c>
@@ -8845,13 +8845,13 @@
         <v>954</v>
       </c>
       <c r="H160" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I160" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1918</v>
       </c>
@@ -8871,13 +8871,13 @@
         <v>1043</v>
       </c>
       <c r="H161" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I161" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1918</v>
       </c>
@@ -8897,13 +8897,13 @@
         <v>1043</v>
       </c>
       <c r="H162" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I162" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1918</v>
       </c>
@@ -8923,13 +8923,13 @@
         <v>1043</v>
       </c>
       <c r="H163" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I163" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1918</v>
       </c>
@@ -8949,13 +8949,13 @@
         <v>1034</v>
       </c>
       <c r="H164" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I164" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1918</v>
       </c>
@@ -8978,10 +8978,10 @@
         <v>1365</v>
       </c>
       <c r="I165" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1918</v>
       </c>
@@ -9004,16 +9004,16 @@
         <v>1365</v>
       </c>
       <c r="I166" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K166" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="L166" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1918</v>
       </c>
@@ -9036,10 +9036,10 @@
         <v>1365</v>
       </c>
       <c r="I167" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1918</v>
       </c>
@@ -9062,10 +9062,10 @@
         <v>1365</v>
       </c>
       <c r="I168" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1918</v>
       </c>
@@ -9085,13 +9085,13 @@
         <v>1000</v>
       </c>
       <c r="H169" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I169" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1918</v>
       </c>
@@ -9114,10 +9114,10 @@
         <v>1365</v>
       </c>
       <c r="I170" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1918</v>
       </c>
@@ -9140,13 +9140,13 @@
         <v>1289</v>
       </c>
       <c r="I171" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J171" t="s">
         <v>1405</v>
       </c>
-      <c r="J171" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1918</v>
       </c>
@@ -9169,13 +9169,13 @@
         <v>1289</v>
       </c>
       <c r="I172" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J172" t="s">
         <v>1405</v>
       </c>
-      <c r="J172" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1918</v>
       </c>
@@ -9198,13 +9198,13 @@
         <v>1289</v>
       </c>
       <c r="I173" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J173" t="s">
         <v>1405</v>
       </c>
-      <c r="J173" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1918</v>
       </c>
@@ -9227,13 +9227,13 @@
         <v>1289</v>
       </c>
       <c r="I174" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J174" t="s">
         <v>1405</v>
       </c>
-      <c r="J174" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1918</v>
       </c>
@@ -9256,13 +9256,13 @@
         <v>1289</v>
       </c>
       <c r="I175" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J175" t="s">
         <v>1405</v>
       </c>
-      <c r="J175" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1918</v>
       </c>
@@ -9285,10 +9285,10 @@
         <v>1290</v>
       </c>
       <c r="I176" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1918</v>
       </c>
@@ -9311,10 +9311,10 @@
         <v>1290</v>
       </c>
       <c r="I177" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1918</v>
       </c>
@@ -9337,10 +9337,10 @@
         <v>1375</v>
       </c>
       <c r="I178" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1918</v>
       </c>
@@ -9363,10 +9363,10 @@
         <v>1375</v>
       </c>
       <c r="I179" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1918</v>
       </c>
@@ -9389,10 +9389,10 @@
         <v>1375</v>
       </c>
       <c r="I180" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1918</v>
       </c>
@@ -9415,10 +9415,10 @@
         <v>1291</v>
       </c>
       <c r="I181" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1918</v>
       </c>
@@ -9441,10 +9441,10 @@
         <v>1292</v>
       </c>
       <c r="I182" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1918</v>
       </c>
@@ -9467,10 +9467,10 @@
         <v>1293</v>
       </c>
       <c r="I183" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1918</v>
       </c>
@@ -9493,10 +9493,10 @@
         <v>1293</v>
       </c>
       <c r="I184" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1918</v>
       </c>
@@ -9519,10 +9519,10 @@
         <v>1293</v>
       </c>
       <c r="I185" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1918</v>
       </c>
@@ -9545,10 +9545,10 @@
         <v>1293</v>
       </c>
       <c r="I186" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1918</v>
       </c>
@@ -9571,10 +9571,10 @@
         <v>1374</v>
       </c>
       <c r="I187" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1918</v>
       </c>
@@ -9597,10 +9597,10 @@
         <v>1374</v>
       </c>
       <c r="I188" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1918</v>
       </c>
@@ -9623,10 +9623,10 @@
         <v>1374</v>
       </c>
       <c r="I189" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1918</v>
       </c>
@@ -9649,10 +9649,10 @@
         <v>1374</v>
       </c>
       <c r="I190" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1918</v>
       </c>
@@ -9675,10 +9675,10 @@
         <v>1374</v>
       </c>
       <c r="I191" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1918</v>
       </c>
@@ -9701,10 +9701,10 @@
         <v>1366</v>
       </c>
       <c r="I192" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1918</v>
       </c>
@@ -9727,10 +9727,10 @@
         <v>1366</v>
       </c>
       <c r="I193" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1918</v>
       </c>
@@ -9753,10 +9753,10 @@
         <v>1366</v>
       </c>
       <c r="I194" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1918</v>
       </c>
@@ -9779,10 +9779,10 @@
         <v>1294</v>
       </c>
       <c r="I195" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1918</v>
       </c>
@@ -9805,10 +9805,10 @@
         <v>1294</v>
       </c>
       <c r="I196" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1918</v>
       </c>
@@ -9831,16 +9831,16 @@
         <v>1294</v>
       </c>
       <c r="I197" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K197" t="s">
         <v>1295</v>
       </c>
       <c r="L197" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1918</v>
       </c>
@@ -9863,10 +9863,10 @@
         <v>1294</v>
       </c>
       <c r="I198" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1918</v>
       </c>
@@ -9889,10 +9889,10 @@
         <v>1294</v>
       </c>
       <c r="I199" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1918</v>
       </c>
@@ -9915,10 +9915,10 @@
         <v>1295</v>
       </c>
       <c r="I200" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1918</v>
       </c>
@@ -9941,10 +9941,10 @@
         <v>1295</v>
       </c>
       <c r="I201" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1918</v>
       </c>
@@ -9967,10 +9967,10 @@
         <v>1296</v>
       </c>
       <c r="I202" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1918</v>
       </c>
@@ -9993,10 +9993,10 @@
         <v>1296</v>
       </c>
       <c r="I203" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1918</v>
       </c>
@@ -10019,10 +10019,10 @@
         <v>1296</v>
       </c>
       <c r="I204" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1918</v>
       </c>
@@ -10045,10 +10045,10 @@
         <v>1296</v>
       </c>
       <c r="I205" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1918</v>
       </c>
@@ -10071,10 +10071,10 @@
         <v>1296</v>
       </c>
       <c r="I206" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1918</v>
       </c>
@@ -10097,10 +10097,10 @@
         <v>1297</v>
       </c>
       <c r="I207" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1918</v>
       </c>
@@ -10123,10 +10123,10 @@
         <v>1297</v>
       </c>
       <c r="I208" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1918</v>
       </c>
@@ -10149,10 +10149,10 @@
         <v>1297</v>
       </c>
       <c r="I209" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1918</v>
       </c>
@@ -10175,10 +10175,10 @@
         <v>1298</v>
       </c>
       <c r="I210" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1918</v>
       </c>
@@ -10201,10 +10201,10 @@
         <v>1298</v>
       </c>
       <c r="I211" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1918</v>
       </c>
@@ -10227,10 +10227,10 @@
         <v>1298</v>
       </c>
       <c r="I212" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1918</v>
       </c>
@@ -10250,13 +10250,13 @@
         <v>1103</v>
       </c>
       <c r="H213" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I213" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1918</v>
       </c>
@@ -10279,10 +10279,10 @@
         <v>1298</v>
       </c>
       <c r="I214" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1918</v>
       </c>
@@ -10302,13 +10302,13 @@
         <v>1105</v>
       </c>
       <c r="H215" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I215" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1918</v>
       </c>
@@ -10331,10 +10331,10 @@
         <v>1299</v>
       </c>
       <c r="I216" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1918</v>
       </c>
@@ -10357,10 +10357,10 @@
         <v>1299</v>
       </c>
       <c r="I217" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1918</v>
       </c>
@@ -10383,10 +10383,10 @@
         <v>1299</v>
       </c>
       <c r="I218" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1918</v>
       </c>
@@ -10409,10 +10409,10 @@
         <v>1299</v>
       </c>
       <c r="I219" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1918</v>
       </c>
@@ -10435,10 +10435,10 @@
         <v>1299</v>
       </c>
       <c r="I220" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1918</v>
       </c>
@@ -10461,13 +10461,13 @@
         <v>1300</v>
       </c>
       <c r="I221" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J221" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1918</v>
       </c>
@@ -10490,13 +10490,13 @@
         <v>1300</v>
       </c>
       <c r="I222" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J222" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1918</v>
       </c>
@@ -10519,13 +10519,13 @@
         <v>1301</v>
       </c>
       <c r="I223" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J223" t="s">
         <v>1405</v>
       </c>
-      <c r="J223" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1918</v>
       </c>
@@ -10548,10 +10548,10 @@
         <v>1302</v>
       </c>
       <c r="I224" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1918</v>
       </c>
@@ -10574,10 +10574,10 @@
         <v>1302</v>
       </c>
       <c r="I225" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1918</v>
       </c>
@@ -10600,13 +10600,13 @@
         <v>1301</v>
       </c>
       <c r="I226" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J226" t="s">
         <v>1405</v>
       </c>
-      <c r="J226" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1918</v>
       </c>
@@ -10629,10 +10629,10 @@
         <v>1367</v>
       </c>
       <c r="I227" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1918</v>
       </c>
@@ -10655,10 +10655,10 @@
         <v>1367</v>
       </c>
       <c r="I228" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1918</v>
       </c>
@@ -10681,10 +10681,10 @@
         <v>1246</v>
       </c>
       <c r="I229" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1918</v>
       </c>
@@ -10707,10 +10707,10 @@
         <v>1302</v>
       </c>
       <c r="I230" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1918</v>
       </c>
@@ -10733,13 +10733,13 @@
         <v>1301</v>
       </c>
       <c r="I231" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J231" t="s">
         <v>1405</v>
       </c>
-      <c r="J231" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1918</v>
       </c>
@@ -10759,13 +10759,13 @@
         <v>1018</v>
       </c>
       <c r="H232" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I232" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1918</v>
       </c>
@@ -10788,10 +10788,10 @@
         <v>1246</v>
       </c>
       <c r="I233" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1918</v>
       </c>
@@ -10814,10 +10814,10 @@
         <v>1246</v>
       </c>
       <c r="I234" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1918</v>
       </c>
@@ -10840,10 +10840,10 @@
         <v>1303</v>
       </c>
       <c r="I235" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1918</v>
       </c>
@@ -10866,10 +10866,10 @@
         <v>1303</v>
       </c>
       <c r="I236" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1918</v>
       </c>
@@ -10892,10 +10892,10 @@
         <v>1304</v>
       </c>
       <c r="I237" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1918</v>
       </c>
@@ -10918,10 +10918,10 @@
         <v>1304</v>
       </c>
       <c r="I238" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1918</v>
       </c>
@@ -10944,10 +10944,10 @@
         <v>1304</v>
       </c>
       <c r="I239" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1918</v>
       </c>
@@ -10970,13 +10970,13 @@
         <v>1301</v>
       </c>
       <c r="I240" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J240" t="s">
         <v>1405</v>
       </c>
-      <c r="J240" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1918</v>
       </c>
@@ -10999,10 +10999,10 @@
         <v>1367</v>
       </c>
       <c r="I241" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1918</v>
       </c>
@@ -11025,10 +11025,10 @@
         <v>1367</v>
       </c>
       <c r="I242" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1918</v>
       </c>
@@ -11051,13 +11051,13 @@
         <v>1301</v>
       </c>
       <c r="I243" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J243" t="s">
         <v>1405</v>
       </c>
-      <c r="J243" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1918</v>
       </c>
@@ -11080,10 +11080,10 @@
         <v>1367</v>
       </c>
       <c r="I244" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1918</v>
       </c>
@@ -11106,13 +11106,13 @@
         <v>1301</v>
       </c>
       <c r="I245" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J245" t="s">
         <v>1405</v>
       </c>
-      <c r="J245" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1918</v>
       </c>
@@ -11135,10 +11135,10 @@
         <v>1302</v>
       </c>
       <c r="I246" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1918</v>
       </c>
@@ -11161,10 +11161,10 @@
         <v>1305</v>
       </c>
       <c r="I247" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1918</v>
       </c>
@@ -11187,10 +11187,10 @@
         <v>1306</v>
       </c>
       <c r="I248" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1918</v>
       </c>
@@ -11213,10 +11213,10 @@
         <v>1307</v>
       </c>
       <c r="I249" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1918</v>
       </c>
@@ -11239,10 +11239,10 @@
         <v>1307</v>
       </c>
       <c r="I250" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1918</v>
       </c>
@@ -11265,10 +11265,10 @@
         <v>1307</v>
       </c>
       <c r="I251" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1918</v>
       </c>
@@ -11291,10 +11291,10 @@
         <v>1307</v>
       </c>
       <c r="I252" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1918</v>
       </c>
@@ -11317,10 +11317,10 @@
         <v>1307</v>
       </c>
       <c r="I253" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1918</v>
       </c>
@@ -11343,10 +11343,10 @@
         <v>1307</v>
       </c>
       <c r="I254" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1918</v>
       </c>
@@ -11369,10 +11369,10 @@
         <v>1307</v>
       </c>
       <c r="I255" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1918</v>
       </c>
@@ -11395,10 +11395,10 @@
         <v>1239</v>
       </c>
       <c r="I256" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1918</v>
       </c>
@@ -11421,10 +11421,10 @@
         <v>1239</v>
       </c>
       <c r="I257" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1918</v>
       </c>
@@ -11447,10 +11447,10 @@
         <v>1269</v>
       </c>
       <c r="I258" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1918</v>
       </c>
@@ -11473,10 +11473,10 @@
         <v>1308</v>
       </c>
       <c r="I259" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1918</v>
       </c>
@@ -11499,10 +11499,10 @@
         <v>1308</v>
       </c>
       <c r="I260" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1918</v>
       </c>
@@ -11525,10 +11525,10 @@
         <v>1308</v>
       </c>
       <c r="I261" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1918</v>
       </c>
@@ -11551,10 +11551,10 @@
         <v>1368</v>
       </c>
       <c r="I262" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1918</v>
       </c>
@@ -11577,10 +11577,10 @@
         <v>1309</v>
       </c>
       <c r="I263" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1918</v>
       </c>
@@ -11603,10 +11603,10 @@
         <v>1309</v>
       </c>
       <c r="I264" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1918</v>
       </c>
@@ -11629,10 +11629,10 @@
         <v>1309</v>
       </c>
       <c r="I265" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1918</v>
       </c>
@@ -11655,10 +11655,10 @@
         <v>1308</v>
       </c>
       <c r="I266" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1918</v>
       </c>
@@ -11681,10 +11681,10 @@
         <v>1308</v>
       </c>
       <c r="I267" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1918</v>
       </c>
@@ -11707,10 +11707,10 @@
         <v>1310</v>
       </c>
       <c r="I268" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1918</v>
       </c>
@@ -11733,10 +11733,10 @@
         <v>1310</v>
       </c>
       <c r="I269" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1918</v>
       </c>
@@ -11756,13 +11756,13 @@
         <v>1142</v>
       </c>
       <c r="H270" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I270" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1918</v>
       </c>
@@ -11782,13 +11782,13 @@
         <v>1143</v>
       </c>
       <c r="H271" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I271" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1918</v>
       </c>
@@ -11808,13 +11808,13 @@
         <v>993</v>
       </c>
       <c r="H272" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I272" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1918</v>
       </c>
@@ -11837,10 +11837,10 @@
         <v>1310</v>
       </c>
       <c r="I273" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1918</v>
       </c>
@@ -11863,10 +11863,10 @@
         <v>1309</v>
       </c>
       <c r="I274" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1918</v>
       </c>
@@ -11889,10 +11889,10 @@
         <v>1308</v>
       </c>
       <c r="I275" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1918</v>
       </c>
@@ -11915,10 +11915,10 @@
         <v>1261</v>
       </c>
       <c r="I276" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1918</v>
       </c>
@@ -11941,10 +11941,10 @@
         <v>1261</v>
       </c>
       <c r="I277" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1918</v>
       </c>
@@ -11967,10 +11967,10 @@
         <v>1261</v>
       </c>
       <c r="I278" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1918</v>
       </c>
@@ -11993,10 +11993,10 @@
         <v>1311</v>
       </c>
       <c r="I279" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1918</v>
       </c>
@@ -12019,10 +12019,10 @@
         <v>1311</v>
       </c>
       <c r="I280" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1918</v>
       </c>
@@ -12042,13 +12042,13 @@
         <v>1147</v>
       </c>
       <c r="H281" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I281" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1918</v>
       </c>
@@ -12068,13 +12068,13 @@
         <v>1148</v>
       </c>
       <c r="H282" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I282" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1918</v>
       </c>
@@ -12097,10 +12097,10 @@
         <v>1312</v>
       </c>
       <c r="I283" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1918</v>
       </c>
@@ -12123,10 +12123,10 @@
         <v>1312</v>
       </c>
       <c r="I284" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1918</v>
       </c>
@@ -12146,13 +12146,13 @@
         <v>1151</v>
       </c>
       <c r="H285" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I285" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1918</v>
       </c>
@@ -12172,13 +12172,13 @@
         <v>1152</v>
       </c>
       <c r="H286" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I286" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1918</v>
       </c>
@@ -12201,10 +12201,10 @@
         <v>1313</v>
       </c>
       <c r="I287" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1918</v>
       </c>
@@ -12227,10 +12227,10 @@
         <v>1313</v>
       </c>
       <c r="I288" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1918</v>
       </c>
@@ -12256,10 +12256,10 @@
         <v>1313</v>
       </c>
       <c r="I289" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1918</v>
       </c>
@@ -12282,10 +12282,10 @@
         <v>1313</v>
       </c>
       <c r="I290" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1918</v>
       </c>
@@ -12308,10 +12308,10 @@
         <v>1313</v>
       </c>
       <c r="I291" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1918</v>
       </c>
@@ -12334,10 +12334,10 @@
         <v>1314</v>
       </c>
       <c r="I292" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1918</v>
       </c>
@@ -12357,13 +12357,13 @@
         <v>997</v>
       </c>
       <c r="H293" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I293" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1918</v>
       </c>
@@ -12383,13 +12383,13 @@
         <v>938</v>
       </c>
       <c r="H294" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I294" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1918</v>
       </c>
@@ -12409,13 +12409,13 @@
         <v>1011</v>
       </c>
       <c r="H295" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I295" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1918</v>
       </c>
@@ -12435,13 +12435,13 @@
         <v>1155</v>
       </c>
       <c r="H296" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I296" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1918</v>
       </c>
@@ -12461,13 +12461,13 @@
         <v>1156</v>
       </c>
       <c r="H297" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I297" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1918</v>
       </c>
@@ -12490,10 +12490,10 @@
         <v>1315</v>
       </c>
       <c r="I298" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1918</v>
       </c>
@@ -12516,10 +12516,10 @@
         <v>1261</v>
       </c>
       <c r="I299" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1918</v>
       </c>
@@ -12542,10 +12542,10 @@
         <v>1261</v>
       </c>
       <c r="I300" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1918</v>
       </c>
@@ -12565,13 +12565,13 @@
         <v>1157</v>
       </c>
       <c r="H301" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I301" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1918</v>
       </c>
@@ -12591,13 +12591,13 @@
         <v>1011</v>
       </c>
       <c r="H302" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I302" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1918</v>
       </c>
@@ -12620,10 +12620,10 @@
         <v>1313</v>
       </c>
       <c r="I303" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1918</v>
       </c>
@@ -12646,13 +12646,13 @@
         <v>1316</v>
       </c>
       <c r="I304" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J304" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1918</v>
       </c>
@@ -12678,13 +12678,13 @@
         <v>1316</v>
       </c>
       <c r="I305" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J305" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1918</v>
       </c>
@@ -12707,13 +12707,13 @@
         <v>1316</v>
       </c>
       <c r="I306" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J306" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1918</v>
       </c>
@@ -12736,13 +12736,13 @@
         <v>1316</v>
       </c>
       <c r="I307" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J307" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1918</v>
       </c>
@@ -12765,13 +12765,13 @@
         <v>1316</v>
       </c>
       <c r="I308" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J308" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1918</v>
       </c>
@@ -12794,10 +12794,10 @@
         <v>1317</v>
       </c>
       <c r="I309" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1918</v>
       </c>
@@ -12820,10 +12820,10 @@
         <v>1317</v>
       </c>
       <c r="I310" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1918</v>
       </c>
@@ -12846,10 +12846,10 @@
         <v>1317</v>
       </c>
       <c r="I311" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1918</v>
       </c>
@@ -12872,10 +12872,10 @@
         <v>1318</v>
       </c>
       <c r="I312" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1918</v>
       </c>
@@ -12898,10 +12898,10 @@
         <v>1319</v>
       </c>
       <c r="I313" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1918</v>
       </c>
@@ -12924,10 +12924,10 @@
         <v>1319</v>
       </c>
       <c r="I314" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1918</v>
       </c>
@@ -12950,10 +12950,10 @@
         <v>1319</v>
       </c>
       <c r="I315" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1918</v>
       </c>
@@ -12976,10 +12976,10 @@
         <v>1320</v>
       </c>
       <c r="I316" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1918</v>
       </c>
@@ -13002,10 +13002,10 @@
         <v>1320</v>
       </c>
       <c r="I317" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1918</v>
       </c>
@@ -13028,10 +13028,10 @@
         <v>1265</v>
       </c>
       <c r="I318" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1918</v>
       </c>
@@ -13054,10 +13054,10 @@
         <v>1318</v>
       </c>
       <c r="I319" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1918</v>
       </c>
@@ -13080,10 +13080,10 @@
         <v>1317</v>
       </c>
       <c r="I320" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1918</v>
       </c>
@@ -13106,10 +13106,10 @@
         <v>1319</v>
       </c>
       <c r="I321" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1918</v>
       </c>
@@ -13132,10 +13132,10 @@
         <v>1269</v>
       </c>
       <c r="I322" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1918</v>
       </c>
@@ -13158,10 +13158,10 @@
         <v>1369</v>
       </c>
       <c r="I323" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1918</v>
       </c>
@@ -13184,10 +13184,10 @@
         <v>1369</v>
       </c>
       <c r="I324" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1918</v>
       </c>
@@ -13210,10 +13210,10 @@
         <v>1321</v>
       </c>
       <c r="I325" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1918</v>
       </c>
@@ -13236,10 +13236,10 @@
         <v>1321</v>
       </c>
       <c r="I326" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1918</v>
       </c>
@@ -13259,13 +13259,13 @@
         <v>934</v>
       </c>
       <c r="H327" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I327" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1918</v>
       </c>
@@ -13285,13 +13285,13 @@
         <v>1035</v>
       </c>
       <c r="H328" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I328" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1918</v>
       </c>
@@ -13311,13 +13311,13 @@
         <v>981</v>
       </c>
       <c r="H329" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I329" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1918</v>
       </c>
@@ -13340,10 +13340,10 @@
         <v>1322</v>
       </c>
       <c r="I330" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1918</v>
       </c>
@@ -13366,10 +13366,10 @@
         <v>1370</v>
       </c>
       <c r="I331" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1918</v>
       </c>
@@ -13392,10 +13392,10 @@
         <v>1370</v>
       </c>
       <c r="I332" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1918</v>
       </c>
@@ -13421,10 +13421,10 @@
         <v>1370</v>
       </c>
       <c r="I333" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1918</v>
       </c>
@@ -13447,10 +13447,10 @@
         <v>1323</v>
       </c>
       <c r="I334" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1918</v>
       </c>
@@ -13473,10 +13473,10 @@
         <v>1324</v>
       </c>
       <c r="I335" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1918</v>
       </c>
@@ -13499,10 +13499,10 @@
         <v>1369</v>
       </c>
       <c r="I336" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1918</v>
       </c>
@@ -13525,10 +13525,10 @@
         <v>1369</v>
       </c>
       <c r="I337" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1918</v>
       </c>
@@ -13551,10 +13551,10 @@
         <v>1321</v>
       </c>
       <c r="I338" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1918</v>
       </c>
@@ -13577,10 +13577,10 @@
         <v>1370</v>
       </c>
       <c r="I339" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1918</v>
       </c>
@@ -13603,10 +13603,10 @@
         <v>1310</v>
       </c>
       <c r="I340" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1918</v>
       </c>
@@ -13629,10 +13629,10 @@
         <v>1280</v>
       </c>
       <c r="I341" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1918</v>
       </c>
@@ -13652,13 +13652,13 @@
         <v>1072</v>
       </c>
       <c r="H342" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I342" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1918</v>
       </c>
@@ -13681,10 +13681,10 @@
         <v>1310</v>
       </c>
       <c r="I343" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1918</v>
       </c>
@@ -13707,10 +13707,10 @@
         <v>1310</v>
       </c>
       <c r="I344" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1918</v>
       </c>
@@ -13733,10 +13733,10 @@
         <v>1325</v>
       </c>
       <c r="I345" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1918</v>
       </c>
@@ -13759,10 +13759,10 @@
         <v>1325</v>
       </c>
       <c r="I346" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1918</v>
       </c>
@@ -13785,10 +13785,10 @@
         <v>1280</v>
       </c>
       <c r="I347" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1918</v>
       </c>
@@ -13811,10 +13811,10 @@
         <v>1326</v>
       </c>
       <c r="I348" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1918</v>
       </c>
@@ -13837,10 +13837,10 @@
         <v>1326</v>
       </c>
       <c r="I349" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1918</v>
       </c>
@@ -13863,10 +13863,10 @@
         <v>1326</v>
       </c>
       <c r="I350" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1918</v>
       </c>
@@ -13889,10 +13889,10 @@
         <v>1326</v>
       </c>
       <c r="I351" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1918</v>
       </c>
@@ -13915,10 +13915,10 @@
         <v>1251</v>
       </c>
       <c r="I352" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1918</v>
       </c>
@@ -13941,10 +13941,10 @@
         <v>1251</v>
       </c>
       <c r="I353" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1918</v>
       </c>
@@ -13967,10 +13967,10 @@
         <v>1327</v>
       </c>
       <c r="I354" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1918</v>
       </c>
@@ -13993,10 +13993,10 @@
         <v>1328</v>
       </c>
       <c r="I355" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1918</v>
       </c>
@@ -14019,10 +14019,10 @@
         <v>1328</v>
       </c>
       <c r="I356" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1918</v>
       </c>
@@ -14045,10 +14045,10 @@
         <v>1328</v>
       </c>
       <c r="I357" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1918</v>
       </c>
@@ -14071,10 +14071,10 @@
         <v>1309</v>
       </c>
       <c r="I358" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1918</v>
       </c>
@@ -14097,10 +14097,10 @@
         <v>1371</v>
       </c>
       <c r="I359" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1918</v>
       </c>
@@ -14123,10 +14123,10 @@
         <v>1372</v>
       </c>
       <c r="I360" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1918</v>
       </c>
@@ -14149,10 +14149,10 @@
         <v>1372</v>
       </c>
       <c r="I361" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1918</v>
       </c>
@@ -14175,10 +14175,10 @@
         <v>1372</v>
       </c>
       <c r="I362" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1918</v>
       </c>
@@ -14201,10 +14201,10 @@
         <v>1330</v>
       </c>
       <c r="I363" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1918</v>
       </c>
@@ -14227,10 +14227,10 @@
         <v>1330</v>
       </c>
       <c r="I364" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1918</v>
       </c>
@@ -14253,10 +14253,10 @@
         <v>1330</v>
       </c>
       <c r="I365" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1918</v>
       </c>
@@ -14279,10 +14279,10 @@
         <v>1330</v>
       </c>
       <c r="I366" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1918</v>
       </c>
@@ -14305,10 +14305,10 @@
         <v>1331</v>
       </c>
       <c r="I367" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1918</v>
       </c>
@@ -14331,10 +14331,10 @@
         <v>1332</v>
       </c>
       <c r="I368" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1918</v>
       </c>
@@ -14360,13 +14360,13 @@
         <v>1333</v>
       </c>
       <c r="I369" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J369" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1918</v>
       </c>
@@ -14392,13 +14392,13 @@
         <v>1333</v>
       </c>
       <c r="I370" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J370" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1918</v>
       </c>
@@ -14424,13 +14424,13 @@
         <v>1333</v>
       </c>
       <c r="I371" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J371" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1918</v>
       </c>
@@ -14456,10 +14456,10 @@
         <v>1241</v>
       </c>
       <c r="I372" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1918</v>
       </c>
@@ -14482,10 +14482,10 @@
         <v>1241</v>
       </c>
       <c r="I373" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1918</v>
       </c>
@@ -14508,10 +14508,10 @@
         <v>1241</v>
       </c>
       <c r="I374" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1918</v>
       </c>
@@ -14534,10 +14534,10 @@
         <v>1241</v>
       </c>
       <c r="I375" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1918</v>
       </c>
@@ -14560,10 +14560,10 @@
         <v>1241</v>
       </c>
       <c r="I376" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1918</v>
       </c>
@@ -14586,10 +14586,10 @@
         <v>1241</v>
       </c>
       <c r="I377" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1918</v>
       </c>
@@ -14612,10 +14612,10 @@
         <v>1334</v>
       </c>
       <c r="I378" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1918</v>
       </c>
@@ -14638,10 +14638,10 @@
         <v>1334</v>
       </c>
       <c r="I379" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1918</v>
       </c>
@@ -14664,10 +14664,10 @@
         <v>1335</v>
       </c>
       <c r="I380" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1918</v>
       </c>
@@ -14690,10 +14690,10 @@
         <v>1335</v>
       </c>
       <c r="I381" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1918</v>
       </c>
@@ -14716,10 +14716,10 @@
         <v>1335</v>
       </c>
       <c r="I382" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1918</v>
       </c>
@@ -14742,10 +14742,10 @@
         <v>1336</v>
       </c>
       <c r="I383" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1918</v>
       </c>
@@ -14771,10 +14771,10 @@
         <v>1337</v>
       </c>
       <c r="I384" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1918</v>
       </c>
@@ -14797,10 +14797,10 @@
         <v>1337</v>
       </c>
       <c r="I385" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1918</v>
       </c>
@@ -14823,10 +14823,10 @@
         <v>1337</v>
       </c>
       <c r="I386" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1918</v>
       </c>
@@ -14849,10 +14849,10 @@
         <v>1337</v>
       </c>
       <c r="I387" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1918</v>
       </c>
@@ -14875,10 +14875,10 @@
         <v>1338</v>
       </c>
       <c r="I388" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1918</v>
       </c>
@@ -14901,10 +14901,10 @@
         <v>1338</v>
       </c>
       <c r="I389" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1918</v>
       </c>
@@ -14927,10 +14927,10 @@
         <v>1338</v>
       </c>
       <c r="I390" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1918</v>
       </c>
@@ -14953,10 +14953,10 @@
         <v>1338</v>
       </c>
       <c r="I391" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1918</v>
       </c>
@@ -14979,10 +14979,10 @@
         <v>1338</v>
       </c>
       <c r="I392" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1918</v>
       </c>
@@ -15005,10 +15005,10 @@
         <v>1338</v>
       </c>
       <c r="I393" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1918</v>
       </c>
@@ -15031,10 +15031,10 @@
         <v>1338</v>
       </c>
       <c r="I394" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1918</v>
       </c>
@@ -15057,10 +15057,10 @@
         <v>1339</v>
       </c>
       <c r="I395" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1918</v>
       </c>
@@ -15083,10 +15083,10 @@
         <v>1339</v>
       </c>
       <c r="I396" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1918</v>
       </c>
@@ -15109,10 +15109,10 @@
         <v>1339</v>
       </c>
       <c r="I397" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1918</v>
       </c>
@@ -15135,10 +15135,10 @@
         <v>1340</v>
       </c>
       <c r="I398" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1918</v>
       </c>
@@ -15161,10 +15161,10 @@
         <v>1341</v>
       </c>
       <c r="I399" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1918</v>
       </c>
@@ -15187,10 +15187,10 @@
         <v>1341</v>
       </c>
       <c r="I400" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1918</v>
       </c>
@@ -15213,10 +15213,10 @@
         <v>1341</v>
       </c>
       <c r="I401" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1918</v>
       </c>
@@ -15239,10 +15239,10 @@
         <v>1342</v>
       </c>
       <c r="I402" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1918</v>
       </c>
@@ -15268,10 +15268,10 @@
         <v>1343</v>
       </c>
       <c r="I403" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1918</v>
       </c>
@@ -15297,10 +15297,10 @@
         <v>1343</v>
       </c>
       <c r="I404" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1918</v>
       </c>
@@ -15326,10 +15326,10 @@
         <v>1343</v>
       </c>
       <c r="I405" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1918</v>
       </c>
@@ -15355,10 +15355,10 @@
         <v>1343</v>
       </c>
       <c r="I406" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1918</v>
       </c>
@@ -15384,10 +15384,10 @@
         <v>1343</v>
       </c>
       <c r="I407" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1918</v>
       </c>
@@ -15413,10 +15413,10 @@
         <v>1343</v>
       </c>
       <c r="I408" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1918</v>
       </c>
@@ -15442,10 +15442,10 @@
         <v>1343</v>
       </c>
       <c r="I409" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1918</v>
       </c>
@@ -15471,10 +15471,10 @@
         <v>1344</v>
       </c>
       <c r="I410" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1918</v>
       </c>
@@ -15500,10 +15500,10 @@
         <v>1344</v>
       </c>
       <c r="I411" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1918</v>
       </c>
@@ -15529,10 +15529,10 @@
         <v>1344</v>
       </c>
       <c r="I412" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1918</v>
       </c>
@@ -15558,10 +15558,10 @@
         <v>1344</v>
       </c>
       <c r="I413" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1918</v>
       </c>
@@ -15587,10 +15587,10 @@
         <v>1344</v>
       </c>
       <c r="I414" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1918</v>
       </c>
@@ -15616,10 +15616,10 @@
         <v>1344</v>
       </c>
       <c r="I415" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1918</v>
       </c>
@@ -15639,13 +15639,13 @@
         <v>1043</v>
       </c>
       <c r="H416" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I416" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1918</v>
       </c>
@@ -15665,13 +15665,13 @@
         <v>1140</v>
       </c>
       <c r="H417" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I417" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1918</v>
       </c>
@@ -15694,10 +15694,10 @@
         <v>1258</v>
       </c>
       <c r="I418" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1918</v>
       </c>
@@ -15720,10 +15720,10 @@
         <v>1258</v>
       </c>
       <c r="I419" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1918</v>
       </c>
@@ -15746,10 +15746,10 @@
         <v>1258</v>
       </c>
       <c r="I420" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1918</v>
       </c>
@@ -15772,10 +15772,10 @@
         <v>1258</v>
       </c>
       <c r="I421" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1918</v>
       </c>
@@ -15798,16 +15798,16 @@
         <v>1258</v>
       </c>
       <c r="I422" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K422" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="L422" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1918</v>
       </c>
@@ -15830,16 +15830,16 @@
         <v>1258</v>
       </c>
       <c r="I423" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K423" t="s">
         <v>1346</v>
       </c>
       <c r="L423" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1918</v>
       </c>
@@ -15859,13 +15859,13 @@
         <v>947</v>
       </c>
       <c r="H424" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I424" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1918</v>
       </c>
@@ -15888,10 +15888,10 @@
         <v>1345</v>
       </c>
       <c r="I425" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1918</v>
       </c>
@@ -15914,10 +15914,10 @@
         <v>1346</v>
       </c>
       <c r="I426" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1918</v>
       </c>
@@ -15940,10 +15940,10 @@
         <v>1373</v>
       </c>
       <c r="I427" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1918</v>
       </c>
@@ -15966,10 +15966,10 @@
         <v>1373</v>
       </c>
       <c r="I428" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1918</v>
       </c>
@@ -15992,10 +15992,10 @@
         <v>1373</v>
       </c>
       <c r="I429" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1918</v>
       </c>
@@ -16018,10 +16018,10 @@
         <v>1373</v>
       </c>
       <c r="I430" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1918</v>
       </c>
@@ -16044,10 +16044,10 @@
         <v>1373</v>
       </c>
       <c r="I431" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1918</v>
       </c>
@@ -16070,10 +16070,10 @@
         <v>1373</v>
       </c>
       <c r="I432" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1918</v>
       </c>
@@ -16096,10 +16096,10 @@
         <v>1347</v>
       </c>
       <c r="I433" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1918</v>
       </c>
@@ -16122,10 +16122,10 @@
         <v>1347</v>
       </c>
       <c r="I434" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1918</v>
       </c>
@@ -16148,10 +16148,10 @@
         <v>1347</v>
       </c>
       <c r="I435" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1918</v>
       </c>
@@ -16174,10 +16174,10 @@
         <v>1347</v>
       </c>
       <c r="I436" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1918</v>
       </c>
@@ -16200,10 +16200,10 @@
         <v>1347</v>
       </c>
       <c r="I437" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1918</v>
       </c>
@@ -16226,16 +16226,16 @@
         <v>1347</v>
       </c>
       <c r="I438" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K438" t="s">
         <v>1350</v>
       </c>
       <c r="L438" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1918</v>
       </c>
@@ -16258,10 +16258,10 @@
         <v>1348</v>
       </c>
       <c r="I439" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1918</v>
       </c>
@@ -16284,10 +16284,10 @@
         <v>1348</v>
       </c>
       <c r="I440" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1918</v>
       </c>
@@ -16310,10 +16310,10 @@
         <v>1349</v>
       </c>
       <c r="I441" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1918</v>
       </c>
@@ -16336,10 +16336,10 @@
         <v>1350</v>
       </c>
       <c r="I442" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1918</v>
       </c>
@@ -16365,10 +16365,10 @@
         <v>1351</v>
       </c>
       <c r="I443" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1918</v>
       </c>
@@ -16391,16 +16391,16 @@
         <v>1351</v>
       </c>
       <c r="I444" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K444" t="s">
         <v>1354</v>
       </c>
       <c r="L444" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1918</v>
       </c>
@@ -16423,22 +16423,22 @@
         <v>1351</v>
       </c>
       <c r="I445" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="K445" t="s">
         <v>1352</v>
       </c>
       <c r="L445" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="M445" t="s">
         <v>1354</v>
       </c>
       <c r="N445" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1918</v>
       </c>
@@ -16461,10 +16461,10 @@
         <v>1351</v>
       </c>
       <c r="I446" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1918</v>
       </c>
@@ -16487,10 +16487,10 @@
         <v>1352</v>
       </c>
       <c r="I447" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1918</v>
       </c>
@@ -16513,10 +16513,10 @@
         <v>1352</v>
       </c>
       <c r="I448" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1918</v>
       </c>
@@ -16539,10 +16539,10 @@
         <v>1352</v>
       </c>
       <c r="I449" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1918</v>
       </c>
@@ -16565,10 +16565,10 @@
         <v>1353</v>
       </c>
       <c r="I450" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1918</v>
       </c>
@@ -16591,10 +16591,10 @@
         <v>1354</v>
       </c>
       <c r="I451" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1918</v>
       </c>
@@ -16617,10 +16617,10 @@
         <v>1354</v>
       </c>
       <c r="I452" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1918</v>
       </c>
@@ -16640,13 +16640,13 @@
         <v>1043</v>
       </c>
       <c r="H453" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I453" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1918</v>
       </c>
@@ -16669,10 +16669,10 @@
         <v>1355</v>
       </c>
       <c r="I454" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1918</v>
       </c>
@@ -16695,10 +16695,10 @@
         <v>1356</v>
       </c>
       <c r="I455" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1918</v>
       </c>
@@ -16721,10 +16721,10 @@
         <v>1356</v>
       </c>
       <c r="I456" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1918</v>
       </c>
@@ -16747,10 +16747,10 @@
         <v>1356</v>
       </c>
       <c r="I457" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1918</v>
       </c>
@@ -16773,10 +16773,10 @@
         <v>1356</v>
       </c>
       <c r="I458" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1918</v>
       </c>
@@ -16799,10 +16799,10 @@
         <v>1356</v>
       </c>
       <c r="I459" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1918</v>
       </c>
@@ -16825,10 +16825,10 @@
         <v>1356</v>
       </c>
       <c r="I460" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1918</v>
       </c>
@@ -16851,10 +16851,10 @@
         <v>1357</v>
       </c>
       <c r="I461" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1918</v>
       </c>
@@ -16877,10 +16877,10 @@
         <v>1358</v>
       </c>
       <c r="I462" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1918</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>1329</v>
       </c>
       <c r="I463" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1918_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1918_Winter.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B078E-8AE8-400C-A2B0-2496B8B65BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F7B60-5E54-485D-8623-3E73F0950614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="1420">
   <si>
     <t>Winter</t>
   </si>
@@ -3766,9 +3779,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>mutzner_p</t>
   </si>
   <si>
@@ -4114,12 +4124,6 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4159,12 +4163,6 @@
     <t>mueller_h2</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>frey_a</t>
   </si>
   <si>
@@ -4277,6 +4275,24 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer_a2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4318,11 +4334,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4626,11 +4645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G72" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="F149" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="59.44140625" customWidth="1"/>
@@ -4663,7 +4682,7 @@
         <v>1239</v>
       </c>
       <c r="I1" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4686,10 +4705,10 @@
         <v>933</v>
       </c>
       <c r="H2" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I2" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4712,10 +4731,10 @@
         <v>934</v>
       </c>
       <c r="H3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I3" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,7 +4760,7 @@
         <v>1239</v>
       </c>
       <c r="I4" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4764,10 +4783,10 @@
         <v>936</v>
       </c>
       <c r="H5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I5" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4793,7 +4812,7 @@
         <v>1242</v>
       </c>
       <c r="I6" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4816,10 +4835,10 @@
         <v>938</v>
       </c>
       <c r="H7" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I7" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,10 +4864,10 @@
         <v>1243</v>
       </c>
       <c r="I8" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J8" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,7 +4893,7 @@
         <v>1240</v>
       </c>
       <c r="I9" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,7 +4919,7 @@
         <v>1240</v>
       </c>
       <c r="I10" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4923,10 +4942,10 @@
         <v>942</v>
       </c>
       <c r="H11" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I11" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4949,10 +4968,10 @@
         <v>943</v>
       </c>
       <c r="H12" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I12" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,10 +4997,10 @@
         <v>1243</v>
       </c>
       <c r="I13" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J13" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,10 +5023,10 @@
         <v>945</v>
       </c>
       <c r="H14" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I14" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5033,7 +5052,7 @@
         <v>1244</v>
       </c>
       <c r="I15" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5059,7 +5078,7 @@
         <v>1242</v>
       </c>
       <c r="I16" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,10 +5101,10 @@
         <v>948</v>
       </c>
       <c r="H17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I17" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,10 +5127,10 @@
         <v>949</v>
       </c>
       <c r="H18" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I18" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5134,10 +5153,10 @@
         <v>950</v>
       </c>
       <c r="H19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I19" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5163,10 +5182,10 @@
         <v>1243</v>
       </c>
       <c r="I20" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J20" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5192,7 +5211,7 @@
         <v>1240</v>
       </c>
       <c r="I21" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5218,7 +5237,7 @@
         <v>1244</v>
       </c>
       <c r="I22" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,7 +5263,7 @@
         <v>1244</v>
       </c>
       <c r="I23" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5267,10 +5286,10 @@
         <v>954</v>
       </c>
       <c r="H24" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I24" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5296,7 +5315,7 @@
         <v>1245</v>
       </c>
       <c r="I25" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,7 +5341,7 @@
         <v>1246</v>
       </c>
       <c r="I26" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5348,10 +5367,10 @@
         <v>1247</v>
       </c>
       <c r="I27" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J27" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5374,10 +5393,10 @@
         <v>958</v>
       </c>
       <c r="H28" t="s">
-        <v>1248</v>
+        <v>1418</v>
       </c>
       <c r="I28" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5400,10 +5419,10 @@
         <v>959</v>
       </c>
       <c r="H29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I29" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5426,10 +5445,10 @@
         <v>960</v>
       </c>
       <c r="H30" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I30" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,10 +5471,10 @@
         <v>961</v>
       </c>
       <c r="H31" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I31" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5478,10 +5497,10 @@
         <v>962</v>
       </c>
       <c r="H32" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I32" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,10 +5523,10 @@
         <v>963</v>
       </c>
       <c r="H33" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="I33" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5530,10 +5549,10 @@
         <v>957</v>
       </c>
       <c r="H34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I34" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5556,10 +5575,10 @@
         <v>964</v>
       </c>
       <c r="H35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I35" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5582,10 +5601,10 @@
         <v>965</v>
       </c>
       <c r="H36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I36" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5611,10 +5630,10 @@
         <v>1247</v>
       </c>
       <c r="I37" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J37" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5637,10 +5656,10 @@
         <v>966</v>
       </c>
       <c r="H38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I38" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5666,7 +5685,7 @@
         <v>1245</v>
       </c>
       <c r="I39" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5689,10 +5708,10 @@
         <v>968</v>
       </c>
       <c r="H40" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I40" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5718,7 +5737,7 @@
         <v>1245</v>
       </c>
       <c r="I41" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5741,10 +5760,10 @@
         <v>970</v>
       </c>
       <c r="H42" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I42" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5767,10 +5786,10 @@
         <v>971</v>
       </c>
       <c r="H43" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="I43" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5793,10 +5812,10 @@
         <v>939</v>
       </c>
       <c r="H44" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I44" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5819,10 +5838,10 @@
         <v>972</v>
       </c>
       <c r="H45" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="I45" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5845,10 +5864,10 @@
         <v>973</v>
       </c>
       <c r="H46" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I46" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5871,10 +5890,10 @@
         <v>974</v>
       </c>
       <c r="H47" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I47" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5897,10 +5916,10 @@
         <v>975</v>
       </c>
       <c r="H48" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I48" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5923,10 +5942,10 @@
         <v>976</v>
       </c>
       <c r="H49" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I49" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -5949,10 +5968,10 @@
         <v>977</v>
       </c>
       <c r="H50" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I50" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -5975,10 +5994,10 @@
         <v>978</v>
       </c>
       <c r="H51" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I51" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6001,10 +6020,10 @@
         <v>979</v>
       </c>
       <c r="H52" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I52" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6027,10 +6046,10 @@
         <v>980</v>
       </c>
       <c r="H53" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I53" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6053,10 +6072,10 @@
         <v>981</v>
       </c>
       <c r="H54" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I54" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6079,10 +6098,10 @@
         <v>970</v>
       </c>
       <c r="H55" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I55" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6105,10 +6124,10 @@
         <v>934</v>
       </c>
       <c r="H56" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I56" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6131,10 +6150,10 @@
         <v>982</v>
       </c>
       <c r="H57" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I57" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6157,10 +6176,10 @@
         <v>983</v>
       </c>
       <c r="H58" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I58" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6183,10 +6202,10 @@
         <v>984</v>
       </c>
       <c r="H59" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I59" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6209,10 +6228,10 @@
         <v>985</v>
       </c>
       <c r="H60" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I60" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6235,10 +6254,10 @@
         <v>986</v>
       </c>
       <c r="H61" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I61" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6261,10 +6280,10 @@
         <v>987</v>
       </c>
       <c r="H62" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I62" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6287,10 +6306,10 @@
         <v>988</v>
       </c>
       <c r="H63" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I63" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6313,10 +6332,10 @@
         <v>989</v>
       </c>
       <c r="H64" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I64" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6339,10 +6358,10 @@
         <v>934</v>
       </c>
       <c r="H65" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I65" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6365,10 +6384,10 @@
         <v>990</v>
       </c>
       <c r="H66" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I66" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6391,10 +6410,10 @@
         <v>991</v>
       </c>
       <c r="H67" t="s">
-        <v>1359</v>
+        <v>1415</v>
       </c>
       <c r="I67" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6420,7 +6439,7 @@
         <v>1245</v>
       </c>
       <c r="I68" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6443,10 +6462,10 @@
         <v>993</v>
       </c>
       <c r="H69" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I69" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6469,10 +6488,10 @@
         <v>970</v>
       </c>
       <c r="H70" t="s">
-        <v>1248</v>
+        <v>1418</v>
       </c>
       <c r="I70" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6498,10 +6517,10 @@
         <v>1247</v>
       </c>
       <c r="I71" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J71" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6524,10 +6543,10 @@
         <v>949</v>
       </c>
       <c r="H72" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I72" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6550,10 +6569,10 @@
         <v>994</v>
       </c>
       <c r="H73" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I73" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6576,10 +6595,10 @@
         <v>951</v>
       </c>
       <c r="H74" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I74" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6605,7 +6624,7 @@
         <v>1246</v>
       </c>
       <c r="I75" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6628,10 +6647,10 @@
         <v>995</v>
       </c>
       <c r="H76" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I76" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6654,10 +6673,10 @@
         <v>996</v>
       </c>
       <c r="H77" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I77" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6680,10 +6699,10 @@
         <v>997</v>
       </c>
       <c r="H78" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I78" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6706,10 +6725,10 @@
         <v>938</v>
       </c>
       <c r="H79" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I79" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6732,10 +6751,10 @@
         <v>998</v>
       </c>
       <c r="H80" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I80" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6758,10 +6777,10 @@
         <v>999</v>
       </c>
       <c r="H81" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I81" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6784,16 +6803,16 @@
         <v>1000</v>
       </c>
       <c r="H82" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I82" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K82" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L82" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6816,10 +6835,10 @@
         <v>1001</v>
       </c>
       <c r="H83" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I83" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6842,16 +6861,16 @@
         <v>1002</v>
       </c>
       <c r="H84" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K84" t="s">
         <v>1266</v>
       </c>
-      <c r="I84" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1267</v>
-      </c>
       <c r="L84" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6877,10 +6896,10 @@
         <v>1003</v>
       </c>
       <c r="H85" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I85" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6903,10 +6922,10 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I86" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6929,10 +6948,10 @@
         <v>1005</v>
       </c>
       <c r="H87" t="s">
-        <v>1379</v>
+        <v>1414</v>
       </c>
       <c r="I87" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6958,10 +6977,10 @@
         <v>1006</v>
       </c>
       <c r="H88" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I88" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6984,10 +7003,10 @@
         <v>1007</v>
       </c>
       <c r="H89" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I89" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -7010,10 +7029,10 @@
         <v>1008</v>
       </c>
       <c r="H90" t="s">
-        <v>1380</v>
+        <v>1417</v>
       </c>
       <c r="I90" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -7036,10 +7055,10 @@
         <v>1009</v>
       </c>
       <c r="H91" t="s">
-        <v>1380</v>
+        <v>1417</v>
       </c>
       <c r="I91" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -7062,10 +7081,10 @@
         <v>1010</v>
       </c>
       <c r="H92" t="s">
-        <v>1380</v>
+        <v>1417</v>
       </c>
       <c r="I92" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -7088,10 +7107,10 @@
         <v>1011</v>
       </c>
       <c r="H93" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I93" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -7114,10 +7133,10 @@
         <v>992</v>
       </c>
       <c r="H94" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I94" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -7140,10 +7159,10 @@
         <v>957</v>
       </c>
       <c r="H95" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I95" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -7166,10 +7185,10 @@
         <v>1012</v>
       </c>
       <c r="H96" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I96" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7192,10 +7211,10 @@
         <v>1013</v>
       </c>
       <c r="H97" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I97" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7218,10 +7237,10 @@
         <v>1014</v>
       </c>
       <c r="H98" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I98" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7244,10 +7263,10 @@
         <v>1015</v>
       </c>
       <c r="H99" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I99" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7270,16 +7289,16 @@
         <v>1016</v>
       </c>
       <c r="H100" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I100" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K100" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="L100" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7302,16 +7321,16 @@
         <v>1017</v>
       </c>
       <c r="H101" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I101" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K101" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="L101" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7334,10 +7353,10 @@
         <v>1018</v>
       </c>
       <c r="H102" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I102" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7360,10 +7379,10 @@
         <v>934</v>
       </c>
       <c r="H103" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I103" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7386,10 +7405,10 @@
         <v>1019</v>
       </c>
       <c r="H104" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I104" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7412,10 +7431,10 @@
         <v>1020</v>
       </c>
       <c r="H105" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="I105" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7438,10 +7457,10 @@
         <v>1021</v>
       </c>
       <c r="H106" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="I106" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7464,10 +7483,10 @@
         <v>1022</v>
       </c>
       <c r="H107" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I107" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7490,10 +7509,10 @@
         <v>1023</v>
       </c>
       <c r="H108" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I108" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7516,10 +7535,10 @@
         <v>1024</v>
       </c>
       <c r="H109" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I109" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7542,10 +7561,10 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I110" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7568,10 +7587,10 @@
         <v>970</v>
       </c>
       <c r="H111" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I111" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7594,10 +7613,10 @@
         <v>1026</v>
       </c>
       <c r="H112" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I112" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7620,10 +7639,10 @@
         <v>1027</v>
       </c>
       <c r="H113" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I113" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7646,10 +7665,10 @@
         <v>1028</v>
       </c>
       <c r="H114" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I114" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7672,10 +7691,10 @@
         <v>1029</v>
       </c>
       <c r="H115" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I115" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7698,10 +7717,10 @@
         <v>1030</v>
       </c>
       <c r="H116" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="I116" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7724,10 +7743,10 @@
         <v>1031</v>
       </c>
       <c r="H117" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I117" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7750,10 +7769,10 @@
         <v>1032</v>
       </c>
       <c r="H118" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I118" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7776,10 +7795,10 @@
         <v>1033</v>
       </c>
       <c r="H119" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I119" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7802,10 +7821,10 @@
         <v>1034</v>
       </c>
       <c r="H120" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I120" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7828,10 +7847,10 @@
         <v>1034</v>
       </c>
       <c r="H121" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I121" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7854,10 +7873,10 @@
         <v>1035</v>
       </c>
       <c r="H122" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I122" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7880,16 +7899,16 @@
         <v>1036</v>
       </c>
       <c r="H123" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I123" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="K123" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L123" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7912,16 +7931,16 @@
         <v>1037</v>
       </c>
       <c r="H124" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K124" t="s">
         <v>1274</v>
       </c>
-      <c r="I124" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K124" t="s">
-        <v>1275</v>
-      </c>
       <c r="L124" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7944,10 +7963,10 @@
         <v>991</v>
       </c>
       <c r="H125" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I125" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7970,10 +7989,10 @@
         <v>1038</v>
       </c>
       <c r="H126" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="I126" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7996,10 +8015,10 @@
         <v>1034</v>
       </c>
       <c r="H127" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="I127" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8022,10 +8041,10 @@
         <v>1034</v>
       </c>
       <c r="H128" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="I128" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8048,10 +8067,10 @@
         <v>1034</v>
       </c>
       <c r="H129" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I129" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8071,13 +8090,13 @@
         <v>601</v>
       </c>
       <c r="G130" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="H130" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I130" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8100,7 +8119,7 @@
         <v>1039</v>
       </c>
       <c r="H131" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8123,7 +8142,7 @@
         <v>1040</v>
       </c>
       <c r="H132" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8146,10 +8165,10 @@
         <v>1041</v>
       </c>
       <c r="H133" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I133" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8172,10 +8191,10 @@
         <v>1042</v>
       </c>
       <c r="H134" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I134" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8195,10 +8214,10 @@
         <v>606</v>
       </c>
       <c r="H135" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I135" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8221,10 +8240,10 @@
         <v>1043</v>
       </c>
       <c r="H136" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I136" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8247,10 +8266,10 @@
         <v>1044</v>
       </c>
       <c r="H137" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="I137" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8273,10 +8292,10 @@
         <v>1045</v>
       </c>
       <c r="H138" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I138" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8299,10 +8318,10 @@
         <v>1046</v>
       </c>
       <c r="H139" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I139" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8325,10 +8344,10 @@
         <v>1047</v>
       </c>
       <c r="H140" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="I140" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8351,10 +8370,10 @@
         <v>1048</v>
       </c>
       <c r="H141" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I141" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8377,10 +8396,10 @@
         <v>1049</v>
       </c>
       <c r="H142" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I142" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8403,10 +8422,10 @@
         <v>1050</v>
       </c>
       <c r="H143" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I143" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8429,10 +8448,10 @@
         <v>1051</v>
       </c>
       <c r="H144" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I144" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8455,10 +8474,10 @@
         <v>1052</v>
       </c>
       <c r="H145" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I145" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8481,10 +8500,10 @@
         <v>1053</v>
       </c>
       <c r="H146" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I146" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8506,11 +8525,11 @@
       <c r="G147" t="s">
         <v>1054</v>
       </c>
-      <c r="H147" t="s">
-        <v>1364</v>
+      <c r="H147" s="1" t="s">
+        <v>1416</v>
       </c>
       <c r="I147" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8533,10 +8552,10 @@
         <v>1055</v>
       </c>
       <c r="H148" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="I148" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8559,10 +8578,10 @@
         <v>1056</v>
       </c>
       <c r="H149" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="I149" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8585,10 +8604,10 @@
         <v>1056</v>
       </c>
       <c r="H150" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="I150" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8611,10 +8630,10 @@
         <v>1057</v>
       </c>
       <c r="H151" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I151" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8637,10 +8656,10 @@
         <v>1058</v>
       </c>
       <c r="H152" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I152" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8663,10 +8682,10 @@
         <v>947</v>
       </c>
       <c r="H153" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="I153" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8689,10 +8708,10 @@
         <v>1034</v>
       </c>
       <c r="H154" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="I154" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8715,10 +8734,10 @@
         <v>1043</v>
       </c>
       <c r="H155" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I155" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8741,10 +8760,10 @@
         <v>1059</v>
       </c>
       <c r="H156" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I156" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8767,10 +8786,10 @@
         <v>1060</v>
       </c>
       <c r="H157" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I157" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8793,10 +8812,10 @@
         <v>950</v>
       </c>
       <c r="H158" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I158" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8819,10 +8838,10 @@
         <v>1061</v>
       </c>
       <c r="H159" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I159" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8845,10 +8864,10 @@
         <v>954</v>
       </c>
       <c r="H160" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I160" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8871,10 +8890,10 @@
         <v>1043</v>
       </c>
       <c r="H161" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I161" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8897,10 +8916,10 @@
         <v>1043</v>
       </c>
       <c r="H162" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="I162" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8923,10 +8942,10 @@
         <v>1043</v>
       </c>
       <c r="H163" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="I163" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8949,10 +8968,10 @@
         <v>1034</v>
       </c>
       <c r="H164" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="I164" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8975,10 +8994,10 @@
         <v>1062</v>
       </c>
       <c r="H165" t="s">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="I165" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9001,16 +9020,16 @@
         <v>1063</v>
       </c>
       <c r="H166" t="s">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="I166" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K166" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="L166" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9033,10 +9052,10 @@
         <v>1064</v>
       </c>
       <c r="H167" t="s">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="I167" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9059,10 +9078,10 @@
         <v>1065</v>
       </c>
       <c r="H168" t="s">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="I168" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9085,10 +9104,10 @@
         <v>1000</v>
       </c>
       <c r="H169" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="I169" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9111,10 +9130,10 @@
         <v>1066</v>
       </c>
       <c r="H170" t="s">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="I170" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9137,13 +9156,13 @@
         <v>1067</v>
       </c>
       <c r="H171" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I171" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J171" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9166,13 +9185,13 @@
         <v>1034</v>
       </c>
       <c r="H172" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I172" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J172" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9195,13 +9214,13 @@
         <v>1018</v>
       </c>
       <c r="H173" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I173" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J173" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9224,13 +9243,13 @@
         <v>1068</v>
       </c>
       <c r="H174" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I174" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J174" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9253,13 +9272,13 @@
         <v>1069</v>
       </c>
       <c r="H175" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I175" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J175" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9282,10 +9301,10 @@
         <v>1061</v>
       </c>
       <c r="H176" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I176" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9308,10 +9327,10 @@
         <v>1070</v>
       </c>
       <c r="H177" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I177" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9334,10 +9353,10 @@
         <v>1071</v>
       </c>
       <c r="H178" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I178" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9360,10 +9379,10 @@
         <v>1072</v>
       </c>
       <c r="H179" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I179" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9386,10 +9405,10 @@
         <v>1073</v>
       </c>
       <c r="H180" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I180" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9412,10 +9431,10 @@
         <v>1074</v>
       </c>
       <c r="H181" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I181" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9438,10 +9457,10 @@
         <v>1075</v>
       </c>
       <c r="H182" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I182" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9464,10 +9483,10 @@
         <v>1076</v>
       </c>
       <c r="H183" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I183" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9490,10 +9509,10 @@
         <v>1077</v>
       </c>
       <c r="H184" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I184" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9516,10 +9535,10 @@
         <v>1078</v>
       </c>
       <c r="H185" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I185" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9542,10 +9561,10 @@
         <v>1079</v>
       </c>
       <c r="H186" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I186" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9568,10 +9587,10 @@
         <v>1080</v>
       </c>
       <c r="H187" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I187" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9594,10 +9613,10 @@
         <v>1081</v>
       </c>
       <c r="H188" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I188" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9620,10 +9639,10 @@
         <v>1082</v>
       </c>
       <c r="H189" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I189" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9646,10 +9665,10 @@
         <v>1083</v>
       </c>
       <c r="H190" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I190" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9672,10 +9691,10 @@
         <v>1084</v>
       </c>
       <c r="H191" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I191" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9698,10 +9717,10 @@
         <v>1085</v>
       </c>
       <c r="H192" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I192" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9724,10 +9743,10 @@
         <v>988</v>
       </c>
       <c r="H193" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I193" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9750,10 +9769,10 @@
         <v>1086</v>
       </c>
       <c r="H194" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I194" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9776,10 +9795,10 @@
         <v>1087</v>
       </c>
       <c r="H195" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I195" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9802,10 +9821,10 @@
         <v>1088</v>
       </c>
       <c r="H196" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I196" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -9828,16 +9847,16 @@
         <v>1089</v>
       </c>
       <c r="H197" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K197" t="s">
         <v>1294</v>
       </c>
-      <c r="I197" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K197" t="s">
-        <v>1295</v>
-      </c>
       <c r="L197" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -9860,10 +9879,10 @@
         <v>1090</v>
       </c>
       <c r="H198" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I198" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -9886,10 +9905,10 @@
         <v>1019</v>
       </c>
       <c r="H199" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I199" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -9912,10 +9931,10 @@
         <v>1091</v>
       </c>
       <c r="H200" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I200" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -9938,10 +9957,10 @@
         <v>1092</v>
       </c>
       <c r="H201" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I201" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -9964,10 +9983,10 @@
         <v>1093</v>
       </c>
       <c r="H202" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I202" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -9990,10 +10009,10 @@
         <v>1094</v>
       </c>
       <c r="H203" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I203" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10016,10 +10035,10 @@
         <v>1095</v>
       </c>
       <c r="H204" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I204" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10042,10 +10061,10 @@
         <v>1096</v>
       </c>
       <c r="H205" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I205" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10068,10 +10087,10 @@
         <v>1019</v>
       </c>
       <c r="H206" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I206" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10094,10 +10113,10 @@
         <v>1097</v>
       </c>
       <c r="H207" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I207" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10120,10 +10139,10 @@
         <v>1098</v>
       </c>
       <c r="H208" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I208" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10146,10 +10165,10 @@
         <v>1099</v>
       </c>
       <c r="H209" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I209" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10172,10 +10191,10 @@
         <v>1100</v>
       </c>
       <c r="H210" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I210" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10198,10 +10217,10 @@
         <v>1101</v>
       </c>
       <c r="H211" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I211" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10224,10 +10243,10 @@
         <v>1102</v>
       </c>
       <c r="H212" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I212" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10250,10 +10269,10 @@
         <v>1103</v>
       </c>
       <c r="H213" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="I213" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10276,10 +10295,10 @@
         <v>1104</v>
       </c>
       <c r="H214" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I214" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10302,10 +10321,10 @@
         <v>1105</v>
       </c>
       <c r="H215" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="I215" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10328,10 +10347,10 @@
         <v>1106</v>
       </c>
       <c r="H216" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I216" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10354,10 +10373,10 @@
         <v>1107</v>
       </c>
       <c r="H217" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I217" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10380,10 +10399,10 @@
         <v>1108</v>
       </c>
       <c r="H218" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I218" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10406,10 +10425,10 @@
         <v>1109</v>
       </c>
       <c r="H219" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I219" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10432,10 +10451,10 @@
         <v>1019</v>
       </c>
       <c r="H220" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I220" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10458,13 +10477,13 @@
         <v>1110</v>
       </c>
       <c r="H221" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I221" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="J221" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10487,13 +10506,13 @@
         <v>1111</v>
       </c>
       <c r="H222" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I222" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="J222" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10516,13 +10535,13 @@
         <v>1112</v>
       </c>
       <c r="H223" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I223" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J223" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10545,10 +10564,10 @@
         <v>1113</v>
       </c>
       <c r="H224" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I224" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10571,10 +10590,10 @@
         <v>1114</v>
       </c>
       <c r="H225" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I225" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10597,13 +10616,13 @@
         <v>1115</v>
       </c>
       <c r="H226" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I226" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J226" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10626,10 +10645,10 @@
         <v>1116</v>
       </c>
       <c r="H227" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I227" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10652,10 +10671,10 @@
         <v>960</v>
       </c>
       <c r="H228" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I228" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10681,7 +10700,7 @@
         <v>1246</v>
       </c>
       <c r="I229" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10704,10 +10723,10 @@
         <v>1118</v>
       </c>
       <c r="H230" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I230" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10730,13 +10749,13 @@
         <v>1119</v>
       </c>
       <c r="H231" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I231" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J231" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10759,10 +10778,10 @@
         <v>1018</v>
       </c>
       <c r="H232" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="I232" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10788,7 +10807,7 @@
         <v>1246</v>
       </c>
       <c r="I233" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10814,7 +10833,7 @@
         <v>1246</v>
       </c>
       <c r="I234" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10837,10 +10856,10 @@
         <v>1122</v>
       </c>
       <c r="H235" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I235" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10863,10 +10882,10 @@
         <v>1034</v>
       </c>
       <c r="H236" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I236" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10889,10 +10908,10 @@
         <v>1035</v>
       </c>
       <c r="H237" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I237" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10915,10 +10934,10 @@
         <v>987</v>
       </c>
       <c r="H238" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I238" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10941,10 +10960,10 @@
         <v>938</v>
       </c>
       <c r="H239" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I239" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10967,13 +10986,13 @@
         <v>1123</v>
       </c>
       <c r="H240" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I240" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J240" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10996,10 +11015,10 @@
         <v>1124</v>
       </c>
       <c r="H241" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I241" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11022,10 +11041,10 @@
         <v>979</v>
       </c>
       <c r="H242" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I242" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11048,13 +11067,13 @@
         <v>1125</v>
       </c>
       <c r="H243" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I243" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J243" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11077,10 +11096,10 @@
         <v>1126</v>
       </c>
       <c r="H244" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="I244" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11103,13 +11122,13 @@
         <v>971</v>
       </c>
       <c r="H245" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I245" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J245" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11132,10 +11151,10 @@
         <v>998</v>
       </c>
       <c r="H246" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I246" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11158,10 +11177,10 @@
         <v>1127</v>
       </c>
       <c r="H247" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I247" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11184,10 +11203,10 @@
         <v>970</v>
       </c>
       <c r="H248" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I248" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11210,10 +11229,10 @@
         <v>1128</v>
       </c>
       <c r="H249" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I249" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11236,10 +11255,10 @@
         <v>1129</v>
       </c>
       <c r="H250" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I250" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11262,10 +11281,10 @@
         <v>1130</v>
       </c>
       <c r="H251" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I251" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11288,10 +11307,10 @@
         <v>1131</v>
       </c>
       <c r="H252" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I252" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11314,10 +11333,10 @@
         <v>1132</v>
       </c>
       <c r="H253" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I253" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11340,10 +11359,10 @@
         <v>953</v>
       </c>
       <c r="H254" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I254" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11366,10 +11385,10 @@
         <v>1043</v>
       </c>
       <c r="H255" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I255" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11395,7 +11414,7 @@
         <v>1239</v>
       </c>
       <c r="I256" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11421,7 +11440,7 @@
         <v>1239</v>
       </c>
       <c r="I257" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11444,10 +11463,10 @@
         <v>1043</v>
       </c>
       <c r="H258" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I258" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11470,10 +11489,10 @@
         <v>1034</v>
       </c>
       <c r="H259" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I259" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11496,10 +11515,10 @@
         <v>1133</v>
       </c>
       <c r="H260" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I260" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11522,10 +11541,10 @@
         <v>1134</v>
       </c>
       <c r="H261" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I261" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11548,10 +11567,10 @@
         <v>1135</v>
       </c>
       <c r="H262" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="I262" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11574,10 +11593,10 @@
         <v>1136</v>
       </c>
       <c r="H263" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I263" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11600,10 +11619,10 @@
         <v>1137</v>
       </c>
       <c r="H264" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I264" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11626,10 +11645,10 @@
         <v>947</v>
       </c>
       <c r="H265" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I265" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11652,10 +11671,10 @@
         <v>1138</v>
       </c>
       <c r="H266" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I266" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11678,10 +11697,10 @@
         <v>1139</v>
       </c>
       <c r="H267" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I267" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11704,10 +11723,10 @@
         <v>1140</v>
       </c>
       <c r="H268" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I268" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11730,10 +11749,10 @@
         <v>1141</v>
       </c>
       <c r="H269" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I269" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11756,10 +11775,10 @@
         <v>1142</v>
       </c>
       <c r="H270" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I270" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11782,10 +11801,10 @@
         <v>1143</v>
       </c>
       <c r="H271" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="I271" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11808,10 +11827,10 @@
         <v>993</v>
       </c>
       <c r="H272" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I272" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11834,10 +11853,10 @@
         <v>1123</v>
       </c>
       <c r="H273" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I273" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11860,10 +11879,10 @@
         <v>951</v>
       </c>
       <c r="H274" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I274" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11886,10 +11905,10 @@
         <v>1144</v>
       </c>
       <c r="H275" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I275" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11912,10 +11931,10 @@
         <v>1145</v>
       </c>
       <c r="H276" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I276" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11938,10 +11957,10 @@
         <v>1011</v>
       </c>
       <c r="H277" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I277" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11964,10 +11983,10 @@
         <v>1146</v>
       </c>
       <c r="H278" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I278" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11990,10 +12009,10 @@
         <v>951</v>
       </c>
       <c r="H279" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I279" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12016,10 +12035,10 @@
         <v>964</v>
       </c>
       <c r="H280" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I280" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12042,10 +12061,10 @@
         <v>1147</v>
       </c>
       <c r="H281" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="I281" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12068,10 +12087,10 @@
         <v>1148</v>
       </c>
       <c r="H282" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="I282" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12094,10 +12113,10 @@
         <v>1149</v>
       </c>
       <c r="H283" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I283" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12120,10 +12139,10 @@
         <v>1150</v>
       </c>
       <c r="H284" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I284" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12146,10 +12165,10 @@
         <v>1151</v>
       </c>
       <c r="H285" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I285" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12172,10 +12191,10 @@
         <v>1152</v>
       </c>
       <c r="H286" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I286" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12198,10 +12217,10 @@
         <v>1153</v>
       </c>
       <c r="H287" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I287" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12224,10 +12243,10 @@
         <v>1154</v>
       </c>
       <c r="H288" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I288" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12253,10 +12272,10 @@
         <v>972</v>
       </c>
       <c r="H289" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I289" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12279,10 +12298,10 @@
         <v>938</v>
       </c>
       <c r="H290" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I290" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12305,10 +12324,10 @@
         <v>934</v>
       </c>
       <c r="H291" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I291" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12331,10 +12350,10 @@
         <v>991</v>
       </c>
       <c r="H292" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I292" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12357,10 +12376,10 @@
         <v>997</v>
       </c>
       <c r="H293" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I293" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12383,10 +12402,10 @@
         <v>938</v>
       </c>
       <c r="H294" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I294" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12409,10 +12428,10 @@
         <v>1011</v>
       </c>
       <c r="H295" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I295" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12435,10 +12454,10 @@
         <v>1155</v>
       </c>
       <c r="H296" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I296" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12461,10 +12480,10 @@
         <v>1156</v>
       </c>
       <c r="H297" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I297" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12487,10 +12506,10 @@
         <v>1072</v>
       </c>
       <c r="H298" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I298" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12513,10 +12532,10 @@
         <v>953</v>
       </c>
       <c r="H299" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I299" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12539,10 +12558,10 @@
         <v>1123</v>
       </c>
       <c r="H300" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I300" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12565,10 +12584,10 @@
         <v>1157</v>
       </c>
       <c r="H301" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I301" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12591,10 +12610,10 @@
         <v>1011</v>
       </c>
       <c r="H302" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I302" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12617,10 +12636,10 @@
         <v>1018</v>
       </c>
       <c r="H303" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I303" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12643,13 +12662,13 @@
         <v>1158</v>
       </c>
       <c r="H304" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I304" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J304" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -12675,13 +12694,13 @@
         <v>1071</v>
       </c>
       <c r="H305" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I305" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J305" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -12704,13 +12723,13 @@
         <v>1155</v>
       </c>
       <c r="H306" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I306" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J306" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -12733,13 +12752,13 @@
         <v>1159</v>
       </c>
       <c r="H307" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I307" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J307" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -12762,13 +12781,13 @@
         <v>1160</v>
       </c>
       <c r="H308" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I308" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="J308" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -12791,10 +12810,10 @@
         <v>1161</v>
       </c>
       <c r="H309" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I309" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -12817,10 +12836,10 @@
         <v>1162</v>
       </c>
       <c r="H310" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I310" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -12843,10 +12862,10 @@
         <v>1163</v>
       </c>
       <c r="H311" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I311" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -12869,10 +12888,10 @@
         <v>972</v>
       </c>
       <c r="H312" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I312" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -12895,10 +12914,10 @@
         <v>1164</v>
       </c>
       <c r="H313" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I313" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -12921,10 +12940,10 @@
         <v>1165</v>
       </c>
       <c r="H314" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I314" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -12947,10 +12966,10 @@
         <v>988</v>
       </c>
       <c r="H315" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I315" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -12973,10 +12992,10 @@
         <v>998</v>
       </c>
       <c r="H316" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I316" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -12999,10 +13018,10 @@
         <v>987</v>
       </c>
       <c r="H317" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I317" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -13025,10 +13044,10 @@
         <v>1034</v>
       </c>
       <c r="H318" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I318" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -13051,10 +13070,10 @@
         <v>1166</v>
       </c>
       <c r="H319" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I319" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -13077,10 +13096,10 @@
         <v>949</v>
       </c>
       <c r="H320" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I320" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13103,10 +13122,10 @@
         <v>950</v>
       </c>
       <c r="H321" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I321" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13129,10 +13148,10 @@
         <v>1167</v>
       </c>
       <c r="H322" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I322" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,10 +13174,10 @@
         <v>939</v>
       </c>
       <c r="H323" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I323" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13181,10 +13200,10 @@
         <v>1168</v>
       </c>
       <c r="H324" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I324" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13207,10 +13226,10 @@
         <v>1169</v>
       </c>
       <c r="H325" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I325" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13233,10 +13252,10 @@
         <v>1170</v>
       </c>
       <c r="H326" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I326" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13259,10 +13278,10 @@
         <v>934</v>
       </c>
       <c r="H327" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I327" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13285,10 +13304,10 @@
         <v>1035</v>
       </c>
       <c r="H328" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I328" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13311,10 +13330,10 @@
         <v>981</v>
       </c>
       <c r="H329" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I329" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13337,10 +13356,10 @@
         <v>1143</v>
       </c>
       <c r="H330" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I330" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13363,10 +13382,10 @@
         <v>1151</v>
       </c>
       <c r="H331" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I331" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13389,10 +13408,10 @@
         <v>1171</v>
       </c>
       <c r="H332" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I332" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13418,10 +13437,10 @@
         <v>1012</v>
       </c>
       <c r="H333" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I333" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13444,10 +13463,10 @@
         <v>954</v>
       </c>
       <c r="H334" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I334" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13470,10 +13489,10 @@
         <v>1172</v>
       </c>
       <c r="H335" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I335" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13496,10 +13515,10 @@
         <v>1173</v>
       </c>
       <c r="H336" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I336" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13522,10 +13541,10 @@
         <v>949</v>
       </c>
       <c r="H337" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="I337" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13548,10 +13567,10 @@
         <v>1174</v>
       </c>
       <c r="H338" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I338" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13574,10 +13593,10 @@
         <v>1175</v>
       </c>
       <c r="H339" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I339" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13600,10 +13619,10 @@
         <v>1176</v>
       </c>
       <c r="H340" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I340" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13626,10 +13645,10 @@
         <v>1143</v>
       </c>
       <c r="H341" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I341" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13652,10 +13671,10 @@
         <v>1072</v>
       </c>
       <c r="H342" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="I342" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13678,10 +13697,10 @@
         <v>1169</v>
       </c>
       <c r="H343" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I343" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13704,10 +13723,10 @@
         <v>1177</v>
       </c>
       <c r="H344" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I344" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13730,10 +13749,10 @@
         <v>950</v>
       </c>
       <c r="H345" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I345" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13756,10 +13775,10 @@
         <v>949</v>
       </c>
       <c r="H346" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I346" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13782,10 +13801,10 @@
         <v>972</v>
       </c>
       <c r="H347" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I347" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13808,10 +13827,10 @@
         <v>988</v>
       </c>
       <c r="H348" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I348" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13834,10 +13853,10 @@
         <v>964</v>
       </c>
       <c r="H349" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I349" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13860,10 +13879,10 @@
         <v>1143</v>
       </c>
       <c r="H350" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I350" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13886,10 +13905,10 @@
         <v>1178</v>
       </c>
       <c r="H351" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I351" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13912,10 +13931,10 @@
         <v>1122</v>
       </c>
       <c r="H352" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I352" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13938,10 +13957,10 @@
         <v>1179</v>
       </c>
       <c r="H353" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I353" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13964,10 +13983,10 @@
         <v>1143</v>
       </c>
       <c r="H354" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I354" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13990,10 +14009,10 @@
         <v>1034</v>
       </c>
       <c r="H355" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I355" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14016,10 +14035,10 @@
         <v>1034</v>
       </c>
       <c r="H356" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I356" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14042,10 +14061,10 @@
         <v>1034</v>
       </c>
       <c r="H357" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I357" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14068,10 +14087,10 @@
         <v>1180</v>
       </c>
       <c r="H358" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I358" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14094,10 +14113,10 @@
         <v>1143</v>
       </c>
       <c r="H359" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I359" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14120,10 +14139,10 @@
         <v>1181</v>
       </c>
       <c r="H360" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I360" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14146,10 +14165,10 @@
         <v>1035</v>
       </c>
       <c r="H361" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I361" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14172,10 +14191,10 @@
         <v>1182</v>
       </c>
       <c r="H362" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I362" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14198,10 +14217,10 @@
         <v>1183</v>
       </c>
       <c r="H363" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I363" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14224,10 +14243,10 @@
         <v>1184</v>
       </c>
       <c r="H364" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I364" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14250,10 +14269,10 @@
         <v>1185</v>
       </c>
       <c r="H365" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I365" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14276,10 +14295,10 @@
         <v>1186</v>
       </c>
       <c r="H366" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I366" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14302,10 +14321,10 @@
         <v>1187</v>
       </c>
       <c r="H367" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I367" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14328,10 +14347,10 @@
         <v>1188</v>
       </c>
       <c r="H368" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I368" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14357,13 +14376,13 @@
         <v>1189</v>
       </c>
       <c r="H369" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I369" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="J369" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14389,13 +14408,13 @@
         <v>950</v>
       </c>
       <c r="H370" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I370" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="J370" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14421,13 +14440,13 @@
         <v>985</v>
       </c>
       <c r="H371" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I371" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="J371" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14456,7 +14475,7 @@
         <v>1241</v>
       </c>
       <c r="I372" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14482,7 +14501,7 @@
         <v>1241</v>
       </c>
       <c r="I373" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14508,7 +14527,7 @@
         <v>1241</v>
       </c>
       <c r="I374" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14534,7 +14553,7 @@
         <v>1241</v>
       </c>
       <c r="I375" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14560,7 +14579,7 @@
         <v>1241</v>
       </c>
       <c r="I376" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14586,7 +14605,7 @@
         <v>1241</v>
       </c>
       <c r="I377" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14609,10 +14628,10 @@
         <v>1195</v>
       </c>
       <c r="H378" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I378" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14635,10 +14654,10 @@
         <v>1196</v>
       </c>
       <c r="H379" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I379" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14661,10 +14680,10 @@
         <v>1197</v>
       </c>
       <c r="H380" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I380" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14687,10 +14706,10 @@
         <v>972</v>
       </c>
       <c r="H381" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I381" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14713,10 +14732,10 @@
         <v>950</v>
       </c>
       <c r="H382" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I382" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14739,10 +14758,10 @@
         <v>1198</v>
       </c>
       <c r="H383" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I383" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14768,10 +14787,10 @@
         <v>1199</v>
       </c>
       <c r="H384" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I384" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14794,10 +14813,10 @@
         <v>1200</v>
       </c>
       <c r="H385" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I385" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14820,10 +14839,10 @@
         <v>1201</v>
       </c>
       <c r="H386" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I386" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14846,10 +14865,10 @@
         <v>1202</v>
       </c>
       <c r="H387" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I387" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14872,10 +14891,10 @@
         <v>1203</v>
       </c>
       <c r="H388" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I388" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14898,10 +14917,10 @@
         <v>1035</v>
       </c>
       <c r="H389" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I389" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14924,10 +14943,10 @@
         <v>1204</v>
       </c>
       <c r="H390" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I390" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14950,10 +14969,10 @@
         <v>1205</v>
       </c>
       <c r="H391" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I391" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14976,10 +14995,10 @@
         <v>1206</v>
       </c>
       <c r="H392" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I392" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15002,10 +15021,10 @@
         <v>1207</v>
       </c>
       <c r="H393" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I393" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15028,10 +15047,10 @@
         <v>1208</v>
       </c>
       <c r="H394" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I394" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15054,10 +15073,10 @@
         <v>1209</v>
       </c>
       <c r="H395" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I395" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15080,10 +15099,10 @@
         <v>979</v>
       </c>
       <c r="H396" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I396" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15106,10 +15125,10 @@
         <v>1210</v>
       </c>
       <c r="H397" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I397" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15132,10 +15151,10 @@
         <v>1034</v>
       </c>
       <c r="H398" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I398" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15158,10 +15177,10 @@
         <v>1143</v>
       </c>
       <c r="H399" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I399" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15184,10 +15203,10 @@
         <v>1034</v>
       </c>
       <c r="H400" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I400" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15210,10 +15229,10 @@
         <v>1034</v>
       </c>
       <c r="H401" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I401" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15236,10 +15255,10 @@
         <v>1034</v>
       </c>
       <c r="H402" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I402" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15265,10 +15284,10 @@
         <v>1211</v>
       </c>
       <c r="H403" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I403" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15294,10 +15313,10 @@
         <v>1212</v>
       </c>
       <c r="H404" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I404" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15323,10 +15342,10 @@
         <v>1213</v>
       </c>
       <c r="H405" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I405" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15352,10 +15371,10 @@
         <v>1037</v>
       </c>
       <c r="H406" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I406" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15381,10 +15400,10 @@
         <v>1214</v>
       </c>
       <c r="H407" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I407" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15410,10 +15429,10 @@
         <v>1214</v>
       </c>
       <c r="H408" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I408" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15439,10 +15458,10 @@
         <v>1147</v>
       </c>
       <c r="H409" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I409" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15468,10 +15487,10 @@
         <v>1215</v>
       </c>
       <c r="H410" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I410" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15497,10 +15516,10 @@
         <v>1216</v>
       </c>
       <c r="H411" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I411" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15526,10 +15545,10 @@
         <v>1217</v>
       </c>
       <c r="H412" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I412" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15555,10 +15574,10 @@
         <v>1200</v>
       </c>
       <c r="H413" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I413" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15584,10 +15603,10 @@
         <v>970</v>
       </c>
       <c r="H414" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I414" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15613,10 +15632,10 @@
         <v>990</v>
       </c>
       <c r="H415" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I415" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15639,10 +15658,10 @@
         <v>1043</v>
       </c>
       <c r="H416" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I416" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15665,10 +15684,10 @@
         <v>1140</v>
       </c>
       <c r="H417" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I417" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15691,10 +15710,10 @@
         <v>1218</v>
       </c>
       <c r="H418" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I418" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15717,10 +15736,10 @@
         <v>1219</v>
       </c>
       <c r="H419" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I419" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15743,10 +15762,10 @@
         <v>1220</v>
       </c>
       <c r="H420" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I420" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15769,10 +15788,10 @@
         <v>1221</v>
       </c>
       <c r="H421" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I421" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15795,16 +15814,16 @@
         <v>1043</v>
       </c>
       <c r="H422" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I422" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K422" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L422" t="s">
         <v>1403</v>
-      </c>
-      <c r="K422" t="s">
-        <v>1399</v>
-      </c>
-      <c r="L422" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15827,16 +15846,16 @@
         <v>998</v>
       </c>
       <c r="H423" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I423" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K423" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="L423" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15859,10 +15878,10 @@
         <v>947</v>
       </c>
       <c r="H424" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="I424" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15885,10 +15904,10 @@
         <v>1043</v>
       </c>
       <c r="H425" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I425" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15911,10 +15930,10 @@
         <v>947</v>
       </c>
       <c r="H426" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I426" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15937,10 +15956,10 @@
         <v>1222</v>
       </c>
       <c r="H427" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I427" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15963,10 +15982,10 @@
         <v>1223</v>
       </c>
       <c r="H428" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I428" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15989,10 +16008,10 @@
         <v>1224</v>
       </c>
       <c r="H429" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I429" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16015,10 +16034,10 @@
         <v>1225</v>
       </c>
       <c r="H430" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I430" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16041,10 +16060,10 @@
         <v>1226</v>
       </c>
       <c r="H431" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I431" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16067,10 +16086,10 @@
         <v>1227</v>
       </c>
       <c r="H432" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I432" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -16093,10 +16112,10 @@
         <v>1228</v>
       </c>
       <c r="H433" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I433" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -16119,10 +16138,10 @@
         <v>1229</v>
       </c>
       <c r="H434" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I434" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -16145,10 +16164,10 @@
         <v>990</v>
       </c>
       <c r="H435" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I435" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -16171,10 +16190,10 @@
         <v>1230</v>
       </c>
       <c r="H436" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I436" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -16197,10 +16216,10 @@
         <v>1231</v>
       </c>
       <c r="H437" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I437" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -16223,16 +16242,16 @@
         <v>1070</v>
       </c>
       <c r="H438" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I438" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K438" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="L438" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -16255,10 +16274,10 @@
         <v>970</v>
       </c>
       <c r="H439" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I439" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -16281,10 +16300,10 @@
         <v>1086</v>
       </c>
       <c r="H440" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I440" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -16307,10 +16326,10 @@
         <v>989</v>
       </c>
       <c r="H441" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I441" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -16333,10 +16352,10 @@
         <v>981</v>
       </c>
       <c r="H442" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I442" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -16362,10 +16381,10 @@
         <v>1232</v>
       </c>
       <c r="H443" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I443" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -16388,16 +16407,16 @@
         <v>1200</v>
       </c>
       <c r="H444" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I444" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="K444" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="L444" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -16420,22 +16439,22 @@
         <v>1200</v>
       </c>
       <c r="H445" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I445" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K445" t="s">
         <v>1351</v>
       </c>
-      <c r="I445" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K445" t="s">
-        <v>1352</v>
-      </c>
       <c r="L445" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="M445" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="N445" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -16458,10 +16477,10 @@
         <v>1043</v>
       </c>
       <c r="H446" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I446" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -16484,10 +16503,10 @@
         <v>1233</v>
       </c>
       <c r="H447" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I447" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -16510,10 +16529,10 @@
         <v>1043</v>
       </c>
       <c r="H448" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I448" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16536,10 +16555,10 @@
         <v>947</v>
       </c>
       <c r="H449" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I449" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16562,10 +16581,10 @@
         <v>1043</v>
       </c>
       <c r="H450" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I450" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16588,10 +16607,10 @@
         <v>1234</v>
       </c>
       <c r="H451" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I451" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16614,10 +16633,10 @@
         <v>1143</v>
       </c>
       <c r="H452" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I452" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16640,10 +16659,10 @@
         <v>1043</v>
       </c>
       <c r="H453" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="I453" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16666,10 +16685,10 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I454" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16692,10 +16711,10 @@
         <v>1235</v>
       </c>
       <c r="H455" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I455" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16718,10 +16737,10 @@
         <v>1043</v>
       </c>
       <c r="H456" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I456" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16744,10 +16763,10 @@
         <v>1236</v>
       </c>
       <c r="H457" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I457" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16770,10 +16789,10 @@
         <v>1070</v>
       </c>
       <c r="H458" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I458" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -16796,10 +16815,10 @@
         <v>1237</v>
       </c>
       <c r="H459" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I459" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -16822,10 +16841,10 @@
         <v>1238</v>
       </c>
       <c r="H460" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I460" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -16848,10 +16867,10 @@
         <v>1043</v>
       </c>
       <c r="H461" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I461" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -16874,10 +16893,10 @@
         <v>1043</v>
       </c>
       <c r="H462" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I462" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -16900,10 +16919,10 @@
         <v>1043</v>
       </c>
       <c r="H463" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I463" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
